--- a/analysis_before.after/derived_data/before.after.xlsx
+++ b/analysis_before.after/derived_data/before.after.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="411">
   <si>
     <t xml:space="preserve">Sample</t>
   </si>
@@ -162,10 +162,10 @@
     <t xml:space="preserve">08.04.2021 13:26</t>
   </si>
   <si>
-    <t xml:space="preserve">12.08.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:31:35</t>
+    <t xml:space="preserve">04.10.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:14:23</t>
   </si>
   <si>
     <t xml:space="preserve">before</t>
@@ -174,7 +174,7 @@
     <t xml:space="preserve">08.05.2021 07:37</t>
   </si>
   <si>
-    <t xml:space="preserve">12:32:25</t>
+    <t xml:space="preserve">15:15:11</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
@@ -183,13 +183,13 @@
     <t xml:space="preserve">08.04.2021 14:07</t>
   </si>
   <si>
-    <t xml:space="preserve">12:33:02</t>
+    <t xml:space="preserve">15:15:48</t>
   </si>
   <si>
     <t xml:space="preserve">08.05.2021 07:56</t>
   </si>
   <si>
-    <t xml:space="preserve">12:33:40</t>
+    <t xml:space="preserve">15:16:24</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
@@ -198,13 +198,13 @@
     <t xml:space="preserve">08.04.2021 14:25</t>
   </si>
   <si>
-    <t xml:space="preserve">12:34:30</t>
+    <t xml:space="preserve">15:17:14</t>
   </si>
   <si>
     <t xml:space="preserve">08.05.2021 08:17</t>
   </si>
   <si>
-    <t xml:space="preserve">12:35:21</t>
+    <t xml:space="preserve">15:18:03</t>
   </si>
   <si>
     <t xml:space="preserve">FLT4-11</t>
@@ -216,37 +216,37 @@
     <t xml:space="preserve">08.09.2021 07:45</t>
   </si>
   <si>
-    <t xml:space="preserve">12:36:08</t>
+    <t xml:space="preserve">15:18:49</t>
   </si>
   <si>
     <t xml:space="preserve">08.09.2021 09:22</t>
   </si>
   <si>
-    <t xml:space="preserve">12:36:55</t>
+    <t xml:space="preserve">15:19:35</t>
   </si>
   <si>
     <t xml:space="preserve">08.09.2021 08:08</t>
   </si>
   <si>
-    <t xml:space="preserve">12:37:42</t>
+    <t xml:space="preserve">15:20:22</t>
   </si>
   <si>
     <t xml:space="preserve">08.09.2021 09:09</t>
   </si>
   <si>
-    <t xml:space="preserve">12:38:31</t>
+    <t xml:space="preserve">15:21:09</t>
   </si>
   <si>
     <t xml:space="preserve">08.09.2021 08:19</t>
   </si>
   <si>
-    <t xml:space="preserve">12:39:15</t>
+    <t xml:space="preserve">15:21:51</t>
   </si>
   <si>
     <t xml:space="preserve">08.09.2021 09:37</t>
   </si>
   <si>
-    <t xml:space="preserve">12:39:58</t>
+    <t xml:space="preserve">15:22:34</t>
   </si>
   <si>
     <t xml:space="preserve">FLT4-12</t>
@@ -255,37 +255,37 @@
     <t xml:space="preserve">08.09.2021 10:10</t>
   </si>
   <si>
-    <t xml:space="preserve">12:40:24</t>
+    <t xml:space="preserve">15:22:58</t>
   </si>
   <si>
     <t xml:space="preserve">08.10.2021 07:41</t>
   </si>
   <si>
-    <t xml:space="preserve">12:40:48</t>
+    <t xml:space="preserve">15:23:22</t>
   </si>
   <si>
     <t xml:space="preserve">08.09.2021 12:13</t>
   </si>
   <si>
-    <t xml:space="preserve">12:41:27</t>
+    <t xml:space="preserve">15:24:01</t>
   </si>
   <si>
     <t xml:space="preserve">08.10.2021 07:59</t>
   </si>
   <si>
-    <t xml:space="preserve">12:42:06</t>
+    <t xml:space="preserve">15:24:39</t>
   </si>
   <si>
     <t xml:space="preserve">08.09.2021 13:26</t>
   </si>
   <si>
-    <t xml:space="preserve">12:42:55</t>
+    <t xml:space="preserve">15:25:27</t>
   </si>
   <si>
     <t xml:space="preserve">08.10.2021 08:14</t>
   </si>
   <si>
-    <t xml:space="preserve">12:43:44</t>
+    <t xml:space="preserve">15:26:15</t>
   </si>
   <si>
     <t xml:space="preserve">FLT4-13</t>
@@ -294,37 +294,37 @@
     <t xml:space="preserve">08.10.2021 08:40</t>
   </si>
   <si>
-    <t xml:space="preserve">12:44:36</t>
+    <t xml:space="preserve">15:27:07</t>
   </si>
   <si>
     <t xml:space="preserve">08.10.2021 09:50</t>
   </si>
   <si>
-    <t xml:space="preserve">12:45:28</t>
+    <t xml:space="preserve">15:27:57</t>
   </si>
   <si>
     <t xml:space="preserve">08.10.2021 08:51</t>
   </si>
   <si>
-    <t xml:space="preserve">12:46:18</t>
+    <t xml:space="preserve">15:28:45</t>
   </si>
   <si>
     <t xml:space="preserve">08.10.2021 10:10</t>
   </si>
   <si>
-    <t xml:space="preserve">12:47:07</t>
+    <t xml:space="preserve">15:29:33</t>
   </si>
   <si>
     <t xml:space="preserve">08.10.2021 09:19</t>
   </si>
   <si>
-    <t xml:space="preserve">12:47:51</t>
+    <t xml:space="preserve">15:30:16</t>
   </si>
   <si>
     <t xml:space="preserve">08.10.2021 10:26</t>
   </si>
   <si>
-    <t xml:space="preserve">12:48:34</t>
+    <t xml:space="preserve">15:30:59</t>
   </si>
   <si>
     <t xml:space="preserve">FLT4-14</t>
@@ -333,79 +333,79 @@
     <t xml:space="preserve">cow scapula</t>
   </si>
   <si>
-    <t xml:space="preserve">08.03.2021 13:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:49:27</t>
+    <t xml:space="preserve">9/28/2022 8:11:18 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:31:49</t>
   </si>
   <si>
     <t xml:space="preserve">08.04.2021 07:43</t>
   </si>
   <si>
-    <t xml:space="preserve">12:50:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.03.2021 13:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:51:09</t>
+    <t xml:space="preserve">15:32:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/28/2022 8:20:17 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:33:13</t>
   </si>
   <si>
     <t xml:space="preserve">08.04.2021 07:58</t>
   </si>
   <si>
-    <t xml:space="preserve">12:51:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.03.2021 14:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:52:46</t>
+    <t xml:space="preserve">15:33:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/28/2022 8:29:15 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:34:40</t>
   </si>
   <si>
     <t xml:space="preserve">08.04.2021 08:12</t>
   </si>
   <si>
-    <t xml:space="preserve">12:53:36</t>
+    <t xml:space="preserve">15:35:32</t>
   </si>
   <si>
     <t xml:space="preserve">FLT4-15</t>
   </si>
   <si>
-    <t xml:space="preserve">08.04.2021 08:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:54:28</t>
+    <t xml:space="preserve">9/28/2022 9:42:07 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:36:10</t>
   </si>
   <si>
     <t xml:space="preserve">08.04.2021 12:01</t>
   </si>
   <si>
-    <t xml:space="preserve">12:55:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.04.2021 09:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:56:17</t>
+    <t xml:space="preserve">15:36:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/28/2022 10:06:49 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:37:36</t>
   </si>
   <si>
     <t xml:space="preserve">08.04.2021 12:14</t>
   </si>
   <si>
-    <t xml:space="preserve">12:57:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.04.2021 11:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:58:01</t>
+    <t xml:space="preserve">15:38:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/28/2022 10:16:07 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:38:56</t>
   </si>
   <si>
     <t xml:space="preserve">08.04.2021 12:36</t>
   </si>
   <si>
-    <t xml:space="preserve">12:58:54</t>
+    <t xml:space="preserve">15:39:28</t>
   </si>
   <si>
     <t xml:space="preserve">FLT4-4</t>
@@ -417,37 +417,37 @@
     <t xml:space="preserve">08.06.2021 07:32</t>
   </si>
   <si>
-    <t xml:space="preserve">12:59:40</t>
+    <t xml:space="preserve">15:40:13</t>
   </si>
   <si>
     <t xml:space="preserve">08.06.2021 08:29</t>
   </si>
   <si>
-    <t xml:space="preserve">13:00:26</t>
+    <t xml:space="preserve">15:40:58</t>
   </si>
   <si>
     <t xml:space="preserve">08.06.2021 07:49</t>
   </si>
   <si>
-    <t xml:space="preserve">13:01:09</t>
+    <t xml:space="preserve">15:41:40</t>
   </si>
   <si>
     <t xml:space="preserve">08.06.2021 08:45</t>
   </si>
   <si>
-    <t xml:space="preserve">13:01:52</t>
+    <t xml:space="preserve">15:42:21</t>
   </si>
   <si>
     <t xml:space="preserve">08.06.2021 08:06</t>
   </si>
   <si>
-    <t xml:space="preserve">13:02:36</t>
+    <t xml:space="preserve">15:43:06</t>
   </si>
   <si>
     <t xml:space="preserve">08.06.2021 09:01</t>
   </si>
   <si>
-    <t xml:space="preserve">13:03:21</t>
+    <t xml:space="preserve">15:43:50</t>
   </si>
   <si>
     <t xml:space="preserve">FLT4-5</t>
@@ -456,73 +456,76 @@
     <t xml:space="preserve">08.05.2021 12:51</t>
   </si>
   <si>
-    <t xml:space="preserve">13:03:57</t>
+    <t xml:space="preserve">15:44:25</t>
   </si>
   <si>
     <t xml:space="preserve">08.05.2021 13:53</t>
   </si>
   <si>
-    <t xml:space="preserve">13:04:33</t>
+    <t xml:space="preserve">15:45:00</t>
   </si>
   <si>
     <t xml:space="preserve">08.05.2021 13:11</t>
   </si>
   <si>
-    <t xml:space="preserve">13:05:15</t>
+    <t xml:space="preserve">15:45:42</t>
   </si>
   <si>
     <t xml:space="preserve">08.05.2021 14:15</t>
   </si>
   <si>
-    <t xml:space="preserve">13:05:59</t>
+    <t xml:space="preserve">15:46:24</t>
   </si>
   <si>
     <t xml:space="preserve">08.05.2021 13:26</t>
   </si>
   <si>
-    <t xml:space="preserve">13:06:46</t>
+    <t xml:space="preserve">15:47:10</t>
   </si>
   <si>
     <t xml:space="preserve">08.05.2021 14:35</t>
   </si>
   <si>
-    <t xml:space="preserve">13:07:33</t>
+    <t xml:space="preserve">15:47:56</t>
   </si>
   <si>
     <t xml:space="preserve">FLT4-6</t>
   </si>
   <si>
-    <t xml:space="preserve">08.03.2021 11:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:08:15</t>
+    <t xml:space="preserve">9/28/2022 8:53:30 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:48:45</t>
   </si>
   <si>
     <t xml:space="preserve">08.03.2021 12:26</t>
   </si>
   <si>
-    <t xml:space="preserve">13:09:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:09:47</t>
+    <t xml:space="preserve">15:49:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/28/2022 9:07:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:50:22</t>
   </si>
   <si>
     <t xml:space="preserve">08.03.2021 12:37</t>
   </si>
   <si>
-    <t xml:space="preserve">13:10:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.03.2021 11:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:11:20</t>
+    <t xml:space="preserve">15:51:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/28/2022 9:16:46 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:51:44</t>
   </si>
   <si>
     <t xml:space="preserve">08.03.2021 13:04</t>
   </si>
   <si>
-    <t xml:space="preserve">13:12:10</t>
+    <t xml:space="preserve">15:52:18</t>
   </si>
   <si>
     <t xml:space="preserve">FLT4-7</t>
@@ -531,37 +534,37 @@
     <t xml:space="preserve">08.05.2021 08:53</t>
   </si>
   <si>
-    <t xml:space="preserve">13:13:00</t>
+    <t xml:space="preserve">15:53:08</t>
   </si>
   <si>
     <t xml:space="preserve">08.05.2021 10:37</t>
   </si>
   <si>
-    <t xml:space="preserve">13:13:52</t>
+    <t xml:space="preserve">15:53:59</t>
   </si>
   <si>
     <t xml:space="preserve">08.05.2021 09:04</t>
   </si>
   <si>
-    <t xml:space="preserve">13:14:36</t>
+    <t xml:space="preserve">15:54:42</t>
   </si>
   <si>
     <t xml:space="preserve">08.05.2021 11:29</t>
   </si>
   <si>
-    <t xml:space="preserve">13:15:21</t>
+    <t xml:space="preserve">15:55:25</t>
   </si>
   <si>
     <t xml:space="preserve">08.05.2021 09:21</t>
   </si>
   <si>
-    <t xml:space="preserve">13:16:12</t>
+    <t xml:space="preserve">15:56:15</t>
   </si>
   <si>
     <t xml:space="preserve">08.05.2021 12:04</t>
   </si>
   <si>
-    <t xml:space="preserve">13:17:05</t>
+    <t xml:space="preserve">15:57:06</t>
   </si>
   <si>
     <t xml:space="preserve">FLT4-8</t>
@@ -570,34 +573,34 @@
     <t xml:space="preserve">08.06.2021 09:27</t>
   </si>
   <si>
-    <t xml:space="preserve">13:17:52</t>
+    <t xml:space="preserve">15:57:51</t>
   </si>
   <si>
     <t xml:space="preserve">08.06.2021 10:32</t>
   </si>
   <si>
-    <t xml:space="preserve">13:18:38</t>
+    <t xml:space="preserve">15:58:37</t>
   </si>
   <si>
     <t xml:space="preserve">08.06.2021 11:21</t>
   </si>
   <si>
-    <t xml:space="preserve">13:19:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:20:03</t>
+    <t xml:space="preserve">15:59:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:59:59</t>
   </si>
   <si>
     <t xml:space="preserve">08.06.2021 09:58</t>
   </si>
   <si>
-    <t xml:space="preserve">13:20:54</t>
+    <t xml:space="preserve">16:00:49</t>
   </si>
   <si>
     <t xml:space="preserve">08.06.2021 11:45</t>
   </si>
   <si>
-    <t xml:space="preserve">13:21:44</t>
+    <t xml:space="preserve">16:01:38</t>
   </si>
   <si>
     <t xml:space="preserve">FLT4-9</t>
@@ -606,37 +609,37 @@
     <t xml:space="preserve">08.06.2021 12:23</t>
   </si>
   <si>
-    <t xml:space="preserve">13:22:31</t>
+    <t xml:space="preserve">16:02:23</t>
   </si>
   <si>
     <t xml:space="preserve">08.06.2021 13:17</t>
   </si>
   <si>
-    <t xml:space="preserve">13:23:17</t>
+    <t xml:space="preserve">16:03:08</t>
   </si>
   <si>
     <t xml:space="preserve">08.06.2021 12:32</t>
   </si>
   <si>
-    <t xml:space="preserve">13:24:01</t>
+    <t xml:space="preserve">16:03:51</t>
   </si>
   <si>
     <t xml:space="preserve">08.06.2021 13:39</t>
   </si>
   <si>
-    <t xml:space="preserve">13:24:44</t>
+    <t xml:space="preserve">16:04:34</t>
   </si>
   <si>
     <t xml:space="preserve">08.06.2021 12:47</t>
   </si>
   <si>
-    <t xml:space="preserve">13:25:31</t>
+    <t xml:space="preserve">16:05:19</t>
   </si>
   <si>
     <t xml:space="preserve">08.06.2021 13:54</t>
   </si>
   <si>
-    <t xml:space="preserve">13:26:18</t>
+    <t xml:space="preserve">16:06:04</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT4-1</t>
@@ -648,37 +651,37 @@
     <t xml:space="preserve">08.03.2021 08:01</t>
   </si>
   <si>
-    <t xml:space="preserve">13:27:10</t>
+    <t xml:space="preserve">16:06:55</t>
   </si>
   <si>
     <t xml:space="preserve">08.03.2021 09:18</t>
   </si>
   <si>
-    <t xml:space="preserve">13:28:03</t>
+    <t xml:space="preserve">16:07:46</t>
   </si>
   <si>
     <t xml:space="preserve">08.03.2021 08:13</t>
   </si>
   <si>
-    <t xml:space="preserve">13:28:54</t>
+    <t xml:space="preserve">16:08:35</t>
   </si>
   <si>
     <t xml:space="preserve">08.03.2021 09:43</t>
   </si>
   <si>
-    <t xml:space="preserve">13:29:45</t>
+    <t xml:space="preserve">16:09:26</t>
   </si>
   <si>
     <t xml:space="preserve">08.03.2021 08:39</t>
   </si>
   <si>
-    <t xml:space="preserve">13:30:11</t>
+    <t xml:space="preserve">16:09:52</t>
   </si>
   <si>
     <t xml:space="preserve">08.03.2021 10:07</t>
   </si>
   <si>
-    <t xml:space="preserve">13:30:38</t>
+    <t xml:space="preserve">16:10:18</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT4-10</t>
@@ -687,34 +690,34 @@
     <t xml:space="preserve">7/30/2021 7:26:34 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:31:28</t>
+    <t xml:space="preserve">16:11:07</t>
   </si>
   <si>
     <t xml:space="preserve">7/30/2021 8:56:10 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:32:20</t>
+    <t xml:space="preserve">16:11:57</t>
   </si>
   <si>
     <t xml:space="preserve">7/30/2021 7:50:32 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:33:15</t>
+    <t xml:space="preserve">16:12:51</t>
   </si>
   <si>
     <t xml:space="preserve">7/30/2021 9:23:32 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:34:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:35:01</t>
+    <t xml:space="preserve">16:13:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:14:34</t>
   </si>
   <si>
     <t xml:space="preserve">7/30/2021 9:50:27 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:35:53</t>
+    <t xml:space="preserve">16:15:25</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT4-11</t>
@@ -723,76 +726,76 @@
     <t xml:space="preserve">7/30/2021 10:47:48 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:36:38</t>
+    <t xml:space="preserve">16:16:09</t>
   </si>
   <si>
     <t xml:space="preserve">7/30/2021 12:28:40 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:37:22</t>
+    <t xml:space="preserve">16:16:53</t>
   </si>
   <si>
     <t xml:space="preserve">7/30/2021 11:45:07 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:37:51</t>
+    <t xml:space="preserve">16:17:21</t>
   </si>
   <si>
     <t xml:space="preserve">7/30/2021 12:42:08 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:38:20</t>
+    <t xml:space="preserve">16:17:49</t>
   </si>
   <si>
     <t xml:space="preserve">7/30/2021 11:57:08 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:38:45</t>
+    <t xml:space="preserve">16:18:13</t>
   </si>
   <si>
     <t xml:space="preserve">7/30/2021 1:08:52 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:39:09</t>
+    <t xml:space="preserve">16:18:36</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT4-12</t>
   </si>
   <si>
-    <t xml:space="preserve">7/26/2021 12:17:38 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:39:45</t>
+    <t xml:space="preserve">9/27/2022 12:08:19 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:19:10</t>
   </si>
   <si>
     <t xml:space="preserve">7/26/2021 2:43:52 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:40:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/26/2021 12:59:27 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:41:00</t>
+    <t xml:space="preserve">16:19:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/27/2022 12:49:10 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:20:24</t>
   </si>
   <si>
     <t xml:space="preserve">7/26/2021 3:08:54 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:41:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/26/2021 1:39:22 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:42:18</t>
+    <t xml:space="preserve">16:21:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/27/2022 1:25:32 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:21:34</t>
   </si>
   <si>
     <t xml:space="preserve">7/26/2021 3:27:55 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:42:57</t>
+    <t xml:space="preserve">16:22:06</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT4-2</t>
@@ -801,37 +804,37 @@
     <t xml:space="preserve">08.02.2021 11:06</t>
   </si>
   <si>
-    <t xml:space="preserve">13:43:51</t>
+    <t xml:space="preserve">16:22:59</t>
   </si>
   <si>
     <t xml:space="preserve">08.02.2021 14:20</t>
   </si>
   <si>
-    <t xml:space="preserve">13:44:46</t>
+    <t xml:space="preserve">16:23:53</t>
   </si>
   <si>
     <t xml:space="preserve">08.02.2021 11:55</t>
   </si>
   <si>
-    <t xml:space="preserve">13:45:38</t>
+    <t xml:space="preserve">16:24:42</t>
   </si>
   <si>
     <t xml:space="preserve">08.02.2021 13:59</t>
   </si>
   <si>
-    <t xml:space="preserve">13:46:29</t>
+    <t xml:space="preserve">16:25:33</t>
   </si>
   <si>
     <t xml:space="preserve">08.02.2021 13:18</t>
   </si>
   <si>
-    <t xml:space="preserve">13:47:24</t>
+    <t xml:space="preserve">16:26:26</t>
   </si>
   <si>
     <t xml:space="preserve">08.02.2021 14:36</t>
   </si>
   <si>
-    <t xml:space="preserve">13:48:19</t>
+    <t xml:space="preserve">16:27:21</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT4-3</t>
@@ -840,37 +843,37 @@
     <t xml:space="preserve">7/27/2021 11:59:49 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:49:05</t>
+    <t xml:space="preserve">16:28:05</t>
   </si>
   <si>
     <t xml:space="preserve">7/27/2021 12:56:56 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:49:51</t>
+    <t xml:space="preserve">16:28:50</t>
   </si>
   <si>
     <t xml:space="preserve">7/27/2021 9:11:08 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:50:34</t>
+    <t xml:space="preserve">16:29:32</t>
   </si>
   <si>
     <t xml:space="preserve">7/27/2021 2:15:08 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:51:18</t>
+    <t xml:space="preserve">16:30:14</t>
   </si>
   <si>
     <t xml:space="preserve">7/27/2021 11:16:00 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:52:10</t>
+    <t xml:space="preserve">16:31:05</t>
   </si>
   <si>
     <t xml:space="preserve">7/27/2021 2:32:06 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:53:02</t>
+    <t xml:space="preserve">16:31:58</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT4-4</t>
@@ -879,76 +882,85 @@
     <t xml:space="preserve">7/28/2021 10:29:44 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:53:41</t>
+    <t xml:space="preserve">16:32:35</t>
   </si>
   <si>
     <t xml:space="preserve">7/28/2021 1:57:40 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:54:21</t>
+    <t xml:space="preserve">16:33:15</t>
   </si>
   <si>
     <t xml:space="preserve">7/28/2021 10:55:14 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:55:09</t>
+    <t xml:space="preserve">16:34:02</t>
   </si>
   <si>
     <t xml:space="preserve">7/28/2021 2:34:20 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:56:00</t>
+    <t xml:space="preserve">16:34:51</t>
   </si>
   <si>
     <t xml:space="preserve">7/28/2021 12:54:44 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:56:57</t>
+    <t xml:space="preserve">16:35:47</t>
   </si>
   <si>
     <t xml:space="preserve">7/28/2021 3:11:19 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">13:57:53</t>
+    <t xml:space="preserve">16:36:41</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT4-5</t>
   </si>
   <si>
-    <t xml:space="preserve">08.02.2021 07:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:58:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.02.2021 08:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:59:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.02.2021 07:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.02.2021 09:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:01:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.02.2021 08:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:02:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.02.2021 10:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:03:06</t>
+    <t xml:space="preserve">A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/28/2022 10:34:54 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:38:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/28/2022 12:07:24 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:38:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/28/2022 10:51:17 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:40:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/28/2022 12:21:42 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:40:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/28/2022 11:08:55 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:43:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/28/2022 12:37:36 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:44:14</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT4-6</t>
@@ -957,76 +969,76 @@
     <t xml:space="preserve">7/29/2021 11:56:38 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:03:54</t>
+    <t xml:space="preserve">16:45:02</t>
   </si>
   <si>
     <t xml:space="preserve">7/29/2021 1:20:42 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:04:43</t>
+    <t xml:space="preserve">16:45:49</t>
   </si>
   <si>
     <t xml:space="preserve">7/29/2021 12:17:27 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:05:30</t>
+    <t xml:space="preserve">16:46:35</t>
   </si>
   <si>
     <t xml:space="preserve">7/29/2021 1:38:20 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:06:19</t>
+    <t xml:space="preserve">16:47:23</t>
   </si>
   <si>
     <t xml:space="preserve">7/29/2021 12:45:34 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:07:05</t>
+    <t xml:space="preserve">16:48:08</t>
   </si>
   <si>
     <t xml:space="preserve">7/29/2021 1:57:45 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:07:51</t>
+    <t xml:space="preserve">16:48:53</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT4-7</t>
   </si>
   <si>
-    <t xml:space="preserve">7/23/2021 8:41:54 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:08:42</t>
+    <t xml:space="preserve">9/27/2022 10:23:39 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:49:35</t>
   </si>
   <si>
     <t xml:space="preserve">7/26/2021 10:05:58 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:09:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/23/2021 9:25:44 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:10:25</t>
+    <t xml:space="preserve">16:50:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/27/2022 10:43:51 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:51:07</t>
   </si>
   <si>
     <t xml:space="preserve">7/26/2021 10:23:26 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:11:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/23/2021 11:33:58 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:12:10</t>
+    <t xml:space="preserve">16:51:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/27/2022 11:36:41 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:52:29</t>
   </si>
   <si>
     <t xml:space="preserve">7/26/2021 10:44:32 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:13:04</t>
+    <t xml:space="preserve">16:53:02</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT4-8</t>
@@ -1035,37 +1047,37 @@
     <t xml:space="preserve">7/28/2021 7:51:50 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:13:47</t>
+    <t xml:space="preserve">16:53:44</t>
   </si>
   <si>
     <t xml:space="preserve">7/28/2021 9:00:37 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:14:31</t>
+    <t xml:space="preserve">16:54:26</t>
   </si>
   <si>
     <t xml:space="preserve">7/28/2021 8:15:04 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:15:00</t>
+    <t xml:space="preserve">16:54:55</t>
   </si>
   <si>
     <t xml:space="preserve">7/28/2021 9:24:56 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:15:30</t>
+    <t xml:space="preserve">16:55:25</t>
   </si>
   <si>
     <t xml:space="preserve">7/28/2021 8:27:36 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:16:19</t>
+    <t xml:space="preserve">16:56:13</t>
   </si>
   <si>
     <t xml:space="preserve">7/28/2021 9:41:38 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:17:09</t>
+    <t xml:space="preserve">16:57:01</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT4-9</t>
@@ -1074,37 +1086,37 @@
     <t xml:space="preserve">7/29/2021 7:56:15 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:17:53</t>
+    <t xml:space="preserve">16:57:45</t>
   </si>
   <si>
     <t xml:space="preserve">7/29/2021 9:50:30 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:18:38</t>
+    <t xml:space="preserve">16:58:29</t>
   </si>
   <si>
     <t xml:space="preserve">7/29/2021 8:24:09 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:19:28</t>
+    <t xml:space="preserve">16:59:18</t>
   </si>
   <si>
     <t xml:space="preserve">7/29/2021 10:45:59 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:20:18</t>
+    <t xml:space="preserve">17:00:07</t>
   </si>
   <si>
     <t xml:space="preserve">7/29/2021 8:49:33 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:21:01</t>
+    <t xml:space="preserve">17:00:48</t>
   </si>
   <si>
     <t xml:space="preserve">7/29/2021 11:02:45 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">14:21:43</t>
+    <t xml:space="preserve">17:01:30</t>
   </si>
   <si>
     <t xml:space="preserve">variable</t>
@@ -4830,109 +4842,109 @@
         <v>107</v>
       </c>
       <c r="I26" t="n">
-        <v>295.8106624</v>
+        <v>617.9568984</v>
       </c>
       <c r="J26" t="n">
-        <v>0.786206552</v>
+        <v>2.489342983</v>
       </c>
       <c r="K26" t="n">
-        <v>4.280508929</v>
+        <v>11.79763934</v>
       </c>
       <c r="L26" t="n">
-        <v>1240.016038</v>
+        <v>4096.2342</v>
       </c>
       <c r="M26" t="n">
-        <v>941.0597833</v>
+        <v>1000.484651</v>
       </c>
       <c r="N26" t="n">
-        <v>2181.075822</v>
+        <v>5096.718851</v>
       </c>
       <c r="O26" t="n">
-        <v>226.7500309</v>
+        <v>411.5657817</v>
       </c>
       <c r="P26" t="n">
-        <v>17.64584859</v>
+        <v>0.563407664</v>
       </c>
       <c r="Q26" t="n">
-        <v>377.7328492</v>
+        <v>647.0334091</v>
       </c>
       <c r="R26" t="n">
-        <v>445.2612107</v>
+        <v>531.7330834</v>
       </c>
       <c r="S26" t="n">
-        <v>20.42487995</v>
+        <v>16.82728694</v>
       </c>
       <c r="T26" t="n">
-        <v>0.600791669</v>
+        <v>0.553192878</v>
       </c>
       <c r="U26" t="n">
-        <v>172.7482967</v>
+        <v>122.7493444</v>
       </c>
       <c r="V26" t="n">
-        <v>0.080552073</v>
+        <v>0.220409297</v>
       </c>
       <c r="W26" t="n">
-        <v>0.322293097</v>
+        <v>2.2208266</v>
       </c>
       <c r="X26" t="n">
-        <v>0.023089315</v>
+        <v>0.080104326</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.400826602</v>
+        <v>0.727141337</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.023089315</v>
+        <v>0.080104326</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.237301238</v>
+        <v>0.360971302</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.376198649</v>
+        <v>0.699323883</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.024627953</v>
+        <v>0.027817454</v>
       </c>
       <c r="AD26" t="n">
-        <v>1263.584581</v>
+        <v>1807.621545</v>
       </c>
       <c r="AE26" t="n">
-        <v>415.2303409</v>
+        <v>975.067101</v>
       </c>
       <c r="AF26" t="n">
-        <v>3533.037304</v>
+        <v>4047.310309</v>
       </c>
       <c r="AG26" t="n">
-        <v>60.07916686</v>
+        <v>55.31928778</v>
       </c>
       <c r="AH26" t="n">
-        <v>179.9833816</v>
+        <v>90.00951909</v>
       </c>
       <c r="AI26" t="n">
-        <v>134.8067207</v>
+        <v>0.033962827</v>
       </c>
       <c r="AJ26" t="n">
-        <v>89.98563194</v>
+        <v>18.02592292</v>
       </c>
       <c r="AK26" t="n">
-        <v>67.08786626</v>
+        <v>52.34268357</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.001932454</v>
+        <v>0.000267764</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.018467959</v>
+        <v>0.017787731</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.592173301</v>
+        <v>4.324539852</v>
       </c>
       <c r="AO26" t="n">
-        <v>3.092114589</v>
+        <v>4.132742036</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.383762875</v>
+        <v>0.229541132</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.457919774</v>
+        <v>0.734808193</v>
       </c>
     </row>
     <row r="27">
@@ -4961,109 +4973,109 @@
         <v>109</v>
       </c>
       <c r="I27" t="n">
-        <v>433.9239132</v>
+        <v>453.8635641</v>
       </c>
       <c r="J27" t="n">
-        <v>1.760359107</v>
+        <v>1.831447312</v>
       </c>
       <c r="K27" t="n">
-        <v>8.483470587</v>
+        <v>8.700077675</v>
       </c>
       <c r="L27" t="n">
-        <v>2758.130171</v>
+        <v>2884.886081</v>
       </c>
       <c r="M27" t="n">
-        <v>1042.361666</v>
+        <v>1136.817959</v>
       </c>
       <c r="N27" t="n">
-        <v>3800.491837</v>
+        <v>4021.704039</v>
       </c>
       <c r="O27" t="n">
-        <v>303.0146624</v>
+        <v>315.2189493</v>
       </c>
       <c r="P27" t="n">
-        <v>0.756220257</v>
+        <v>0.7079379</v>
       </c>
       <c r="Q27" t="n">
-        <v>504.5065445</v>
+        <v>528.2039343</v>
       </c>
       <c r="R27" t="n">
-        <v>543.709463</v>
+        <v>536.0241549</v>
       </c>
       <c r="S27" t="n">
-        <v>18.44045592</v>
+        <v>19.09893297</v>
       </c>
       <c r="T27" t="n">
-        <v>0.360255547</v>
+        <v>0.419088062</v>
       </c>
       <c r="U27" t="n">
-        <v>132.4864027</v>
+        <v>133.2321073</v>
       </c>
       <c r="V27" t="n">
-        <v>0.165673741</v>
+        <v>0.170108162</v>
       </c>
       <c r="W27" t="n">
-        <v>1.290784382</v>
+        <v>1.361619691</v>
       </c>
       <c r="X27" t="n">
-        <v>0.04676512</v>
+        <v>0.050010305</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.551261121</v>
+        <v>0.578216136</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.04676512</v>
+        <v>0.050010305</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.287808988</v>
+        <v>0.289854189</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.520002823</v>
+        <v>0.54668982</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.031258298</v>
+        <v>0.031526316</v>
       </c>
       <c r="AD27" t="n">
-        <v>1472.661662</v>
+        <v>1588.474268</v>
       </c>
       <c r="AE27" t="n">
-        <v>605.8624263</v>
+        <v>622.1841101</v>
       </c>
       <c r="AF27" t="n">
-        <v>3695.040767</v>
+        <v>3690.469838</v>
       </c>
       <c r="AG27" t="n">
-        <v>36.02555471</v>
+        <v>41.90880616</v>
       </c>
       <c r="AH27" t="n">
-        <v>134.7763327</v>
+        <v>136.0242033</v>
       </c>
       <c r="AI27" t="n">
-        <v>89.98740653</v>
+        <v>89.98388364</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.006804403</v>
+        <v>62.76433118</v>
       </c>
       <c r="AK27" t="n">
-        <v>50.66644357</v>
+        <v>52.52040389</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.001450161</v>
+        <v>0.001980434</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.017631012</v>
+        <v>0.017448435</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.806692014</v>
+        <v>2.911267686</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.24598186</v>
+        <v>3.013524891</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.272431185</v>
+        <v>0.239675185</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.500305056</v>
+        <v>0.524444524</v>
       </c>
     </row>
     <row r="28">
@@ -5092,109 +5104,109 @@
         <v>111</v>
       </c>
       <c r="I28" t="n">
-        <v>269.0123011</v>
+        <v>424.4412736</v>
       </c>
       <c r="J28" t="n">
-        <v>0.665648454</v>
+        <v>2.494206027</v>
       </c>
       <c r="K28" t="n">
-        <v>3.900323325</v>
+        <v>15.0923054</v>
       </c>
       <c r="L28" t="n">
-        <v>1256.931278</v>
+        <v>3667.119089</v>
       </c>
       <c r="M28" t="n">
-        <v>653.4509193</v>
+        <v>864.7673859</v>
       </c>
       <c r="N28" t="n">
-        <v>1910.382197</v>
+        <v>4531.886475</v>
       </c>
       <c r="O28" t="n">
-        <v>214.8606794</v>
+        <v>293.7987225</v>
       </c>
       <c r="P28" t="n">
-        <v>16.27607476</v>
+        <v>0.278528936</v>
       </c>
       <c r="Q28" t="n">
-        <v>339.6454796</v>
+        <v>478.2260201</v>
       </c>
       <c r="R28" t="n">
-        <v>408.2457891</v>
+        <v>436.5133274</v>
       </c>
       <c r="S28" t="n">
-        <v>20.44764335</v>
+        <v>11.41257177</v>
       </c>
       <c r="T28" t="n">
-        <v>0.17803673</v>
+        <v>0.30025921</v>
       </c>
       <c r="U28" t="n">
-        <v>122.7484288</v>
+        <v>142.2483113</v>
       </c>
       <c r="V28" t="n">
-        <v>0.082698704</v>
+        <v>0.20306893</v>
       </c>
       <c r="W28" t="n">
-        <v>0.34014555</v>
+        <v>1.939571069</v>
       </c>
       <c r="X28" t="n">
-        <v>0.018054991</v>
+        <v>0.044047444</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.357706443</v>
+        <v>0.522276076</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.018054991</v>
+        <v>0.044047444</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.238311662</v>
+        <v>0.279718079</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.337599882</v>
+        <v>0.499109277</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.020106561</v>
+        <v>0.0231668</v>
       </c>
       <c r="AD28" t="n">
-        <v>875.4348838</v>
+        <v>1839.009969</v>
       </c>
       <c r="AE28" t="n">
-        <v>330.9369926</v>
+        <v>683.5432755</v>
       </c>
       <c r="AF28" t="n">
-        <v>3603.141171</v>
+        <v>4065.742561</v>
       </c>
       <c r="AG28" t="n">
-        <v>17.80367295</v>
+        <v>30.025921</v>
       </c>
       <c r="AH28" t="n">
-        <v>179.9977595</v>
+        <v>90.00311038</v>
       </c>
       <c r="AI28" t="n">
-        <v>134.9916371</v>
+        <v>116.2300517</v>
       </c>
       <c r="AJ28" t="n">
-        <v>123.746267</v>
+        <v>45.2040346</v>
       </c>
       <c r="AK28" t="n">
-        <v>51.54125132</v>
+        <v>75.55654187</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.001946176</v>
+        <v>0.000180975</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.018042388</v>
+        <v>0.017652102</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.679244213</v>
+        <v>3.979344231</v>
       </c>
       <c r="AO28" t="n">
-        <v>4.128958533</v>
+        <v>3.608696752</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.1707457</v>
+        <v>0.208541204</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.315549367</v>
+        <v>0.50066597</v>
       </c>
     </row>
     <row r="29">
@@ -5223,109 +5235,109 @@
         <v>113</v>
       </c>
       <c r="I29" t="n">
-        <v>574.8522783</v>
+        <v>507.3969148</v>
       </c>
       <c r="J29" t="n">
-        <v>2.900359385</v>
+        <v>3.479488843</v>
       </c>
       <c r="K29" t="n">
-        <v>15.95818103</v>
+        <v>21.95290809</v>
       </c>
       <c r="L29" t="n">
-        <v>4376.241013</v>
+        <v>4307.235636</v>
       </c>
       <c r="M29" t="n">
-        <v>894.5363723</v>
+        <v>763.3261479</v>
       </c>
       <c r="N29" t="n">
-        <v>5270.777385</v>
+        <v>5070.561784</v>
       </c>
       <c r="O29" t="n">
-        <v>372.0841124</v>
+        <v>316.6348923</v>
       </c>
       <c r="P29" t="n">
-        <v>0.433798536</v>
+        <v>0.421334965</v>
       </c>
       <c r="Q29" t="n">
-        <v>563.2899138</v>
+        <v>466.6406989</v>
       </c>
       <c r="R29" t="n">
-        <v>507.0834892</v>
+        <v>438.6072488</v>
       </c>
       <c r="S29" t="n">
-        <v>18.31861921</v>
+        <v>15.59782926</v>
       </c>
       <c r="T29" t="n">
-        <v>0.325557994</v>
+        <v>0.651910795</v>
       </c>
       <c r="U29" t="n">
-        <v>157.5086432</v>
+        <v>147.2458529</v>
       </c>
       <c r="V29" t="n">
-        <v>0.177815047</v>
+        <v>0.175966458</v>
       </c>
       <c r="W29" t="n">
-        <v>1.466337693</v>
+        <v>1.454209858</v>
       </c>
       <c r="X29" t="n">
-        <v>0.074178242</v>
+        <v>0.063328418</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.637459353</v>
+        <v>0.529971201</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.074178242</v>
+        <v>0.063328418</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.327503631</v>
+        <v>0.282295508</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.610336116</v>
+        <v>0.50716601</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.027123237</v>
+        <v>0.022805191</v>
       </c>
       <c r="AD29" t="n">
-        <v>1894.527629</v>
+        <v>1549.520744</v>
       </c>
       <c r="AE29" t="n">
-        <v>756.5827331</v>
+        <v>675.0655173</v>
       </c>
       <c r="AF29" t="n">
-        <v>3705.1404</v>
+        <v>3744.89762</v>
       </c>
       <c r="AG29" t="n">
-        <v>32.55579944</v>
+        <v>65.19107945</v>
       </c>
       <c r="AH29" t="n">
-        <v>89.96125439</v>
+        <v>89.98563158</v>
       </c>
       <c r="AI29" t="n">
-        <v>135.0189255</v>
+        <v>134.8140838</v>
       </c>
       <c r="AJ29" t="n">
-        <v>179.9907114</v>
+        <v>116.2077575</v>
       </c>
       <c r="AK29" t="n">
-        <v>79.22993352</v>
+        <v>69.2885038</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.001061692</v>
+        <v>0.002420121</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.017447267</v>
+        <v>0.017403594</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.845431952</v>
+        <v>2.86544172</v>
       </c>
       <c r="AO29" t="n">
-        <v>4.128958533</v>
+        <v>3.608696752</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.396621333</v>
+        <v>0.429048483</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.67534323</v>
+        <v>0.703664941</v>
       </c>
     </row>
     <row r="30">
@@ -5354,109 +5366,103 @@
         <v>115</v>
       </c>
       <c r="I30" t="n">
-        <v>1110.82823</v>
+        <v>1131.577307</v>
       </c>
       <c r="J30" t="n">
-        <v>0.187909468</v>
+        <v>0.168192419</v>
       </c>
       <c r="K30" t="n">
-        <v>4.917156918</v>
+        <v>3.920229987</v>
       </c>
       <c r="L30" t="n">
-        <v>5063.660809</v>
+        <v>4381.330453</v>
       </c>
       <c r="M30" t="n">
-        <v>3968.417193</v>
+        <v>3625.797544</v>
       </c>
       <c r="N30" t="n">
-        <v>9032.078003</v>
+        <v>8007.127998</v>
       </c>
       <c r="O30" t="n">
-        <v>816.2005626</v>
+        <v>884.9636751</v>
       </c>
       <c r="P30" t="n">
-        <v>0.415086035</v>
+        <v>0.877223088</v>
       </c>
       <c r="Q30" t="n">
-        <v>1201.706562</v>
+        <v>1269.900802</v>
       </c>
       <c r="R30" t="n">
-        <v>2386.528038</v>
+        <v>2168.428245</v>
       </c>
       <c r="S30" t="n">
-        <v>18.27301383</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.313387024</v>
-      </c>
+        <v>18.32103069</v>
+      </c>
+      <c r="T30"/>
       <c r="U30" t="n">
-        <v>171.7485504</v>
+        <v>125.7606671</v>
       </c>
       <c r="V30" t="n">
-        <v>0.14792357</v>
+        <v>0.212741561</v>
       </c>
       <c r="W30" t="n">
-        <v>1.057349423</v>
+        <v>2.136130133</v>
       </c>
       <c r="X30" t="n">
-        <v>0.079823557</v>
+        <v>0.074196133</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.281519518</v>
+        <v>1.344087405</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.079823557</v>
+        <v>0.074196133</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.800853623</v>
+        <v>0.952456688</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.123162297</v>
+        <v>1.216590847</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.158357221</v>
+        <v>0.127496558</v>
       </c>
       <c r="AD30" t="n">
-        <v>2669.290671</v>
+        <v>3178.552116</v>
       </c>
       <c r="AE30" t="n">
-        <v>831.6347513</v>
+        <v>1175.339782</v>
       </c>
       <c r="AF30" t="n">
-        <v>3171.804644</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>31.33870235</v>
-      </c>
+        <v>3605.691782</v>
+      </c>
+      <c r="AG30"/>
       <c r="AH30" t="n">
-        <v>179.9986281</v>
+        <v>134.4460958</v>
       </c>
       <c r="AI30" t="n">
-        <v>116.5158802</v>
+        <v>179.990982</v>
       </c>
       <c r="AJ30" t="n">
-        <v>90.02661764</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>10.29253548</v>
-      </c>
+        <v>116.2784141</v>
+      </c>
+      <c r="AK30"/>
       <c r="AL30" t="n">
-        <v>0.004253672</v>
+        <v>0.002358346</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.019268004</v>
+        <v>0.01865665</v>
       </c>
       <c r="AN30" t="n">
-        <v>1.227009345</v>
+        <v>3.37831931</v>
       </c>
       <c r="AO30" t="n">
-        <v>5.714718442</v>
+        <v>4.229656386</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.428193937</v>
+        <v>0.439273637</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.890168187</v>
+        <v>0.605592235</v>
       </c>
     </row>
     <row r="31">
@@ -5485,109 +5491,109 @@
         <v>117</v>
       </c>
       <c r="I31" t="n">
-        <v>634.6500529</v>
+        <v>627.4023534</v>
       </c>
       <c r="J31" t="n">
-        <v>6.681042706</v>
+        <v>6.764985384</v>
       </c>
       <c r="K31" t="n">
-        <v>66.3122732</v>
+        <v>68.1561741</v>
       </c>
       <c r="L31" t="n">
-        <v>7698.117161</v>
+        <v>7722.80284</v>
       </c>
       <c r="M31" t="n">
-        <v>933.0185764</v>
+        <v>881.9076928</v>
       </c>
       <c r="N31" t="n">
-        <v>8631.135738</v>
+        <v>8604.710533</v>
       </c>
       <c r="O31" t="n">
-        <v>307.0796928</v>
+        <v>306.557273</v>
       </c>
       <c r="P31" t="n">
-        <v>0.252658266</v>
+        <v>0.244372586</v>
       </c>
       <c r="Q31" t="n">
-        <v>369.7425456</v>
+        <v>383.5080553</v>
       </c>
       <c r="R31" t="n">
-        <v>575.1312196</v>
+        <v>538.6205384</v>
       </c>
       <c r="S31" t="n">
-        <v>12.20415476</v>
+        <v>12.45826297</v>
       </c>
       <c r="T31" t="n">
-        <v>0.700252566</v>
+        <v>0.692306693</v>
       </c>
       <c r="U31" t="n">
-        <v>132.5019027</v>
+        <v>132.0049373</v>
       </c>
       <c r="V31" t="n">
-        <v>0.243747055</v>
+        <v>0.240658336</v>
       </c>
       <c r="W31" t="n">
-        <v>2.063547058</v>
+        <v>2.032818282</v>
       </c>
       <c r="X31" t="n">
-        <v>0.077972022</v>
+        <v>0.075552468</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.447708624</v>
+        <v>0.45904614</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.077972022</v>
+        <v>0.075552468</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.259776605</v>
+        <v>0.262763493</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.414631644</v>
+        <v>0.428278445</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.03307698</v>
+        <v>0.030767695</v>
       </c>
       <c r="AD31" t="n">
-        <v>2531.188692</v>
+        <v>2424.358997</v>
       </c>
       <c r="AE31" t="n">
-        <v>670.6913335</v>
+        <v>673.7419562</v>
       </c>
       <c r="AF31" t="n">
-        <v>3683.594068</v>
+        <v>3689.063746</v>
       </c>
       <c r="AG31" t="n">
-        <v>70.02525662</v>
+        <v>69.2306693</v>
       </c>
       <c r="AH31" t="n">
-        <v>63.49315104</v>
+        <v>134.4725501</v>
       </c>
       <c r="AI31" t="n">
-        <v>89.98531166</v>
+        <v>89.983393</v>
       </c>
       <c r="AJ31" t="n">
-        <v>116.5056566</v>
+        <v>0.020114739</v>
       </c>
       <c r="AK31" t="n">
-        <v>70.57958618</v>
+        <v>66.25298764</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.001708666</v>
+        <v>0.00161942</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.0169308</v>
+        <v>0.017120068</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.942606383</v>
+        <v>3.807035482</v>
       </c>
       <c r="AO31" t="n">
-        <v>5.714718442</v>
+        <v>5.806948476</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.704137769</v>
+        <v>0.751725967</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.418511097</v>
+        <v>1.183686324</v>
       </c>
     </row>
     <row r="32">
@@ -5616,108 +5622,110 @@
         <v>120</v>
       </c>
       <c r="I32" t="n">
-        <v>4393.341679</v>
+        <v>3401.321922</v>
       </c>
       <c r="J32" t="n">
-        <v>0.495856066</v>
+        <v>0.478768352</v>
       </c>
       <c r="K32" t="n">
-        <v>7.250152462</v>
+        <v>8.070800819</v>
       </c>
       <c r="L32" t="n">
-        <v>23317.80257</v>
+        <v>16626.92048</v>
       </c>
       <c r="M32" t="n">
-        <v>16686.9164</v>
+        <v>12356.86532</v>
       </c>
       <c r="N32" t="n">
-        <v>40004.71897</v>
+        <v>28983.7858</v>
       </c>
       <c r="O32" t="n">
-        <v>2874.986109</v>
+        <v>2199.208557</v>
       </c>
       <c r="P32" t="n">
-        <v>0.077589162</v>
+        <v>0.262337287</v>
       </c>
       <c r="Q32" t="n">
-        <v>3328.437631</v>
+        <v>2402.167506</v>
       </c>
       <c r="R32" t="n">
-        <v>9811.259784</v>
+        <v>8367.071802</v>
       </c>
       <c r="S32" t="n">
-        <v>16.39898704</v>
+        <v>14.8911999</v>
       </c>
       <c r="T32" t="n">
-        <v>0.158477702</v>
+        <v>0.137924436</v>
       </c>
       <c r="U32" t="n">
-        <v>137.5144059</v>
+        <v>138.2560083</v>
       </c>
       <c r="V32" t="n">
-        <v>0.814559769</v>
+        <v>0.71868296</v>
       </c>
       <c r="W32" t="n">
-        <v>10.08646674</v>
+        <v>7.85240443</v>
       </c>
       <c r="X32" t="n">
-        <v>0.502798101</v>
+        <v>0.359568551</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.831267843</v>
+        <v>2.761757108</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.502798101</v>
+        <v>0.359568551</v>
       </c>
       <c r="AA32" t="n">
-        <v>2.336892235</v>
+        <v>1.888622966</v>
       </c>
       <c r="AB32" t="n">
-        <v>3.10078539</v>
+        <v>2.213985375</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.730482453</v>
+        <v>0.547771733</v>
       </c>
       <c r="AD32" t="n">
-        <v>20091.37504</v>
+        <v>13245.46984</v>
       </c>
       <c r="AE32" t="n">
-        <v>2262.40237</v>
+        <v>1545.343209</v>
       </c>
       <c r="AF32" t="n">
-        <v>3324.490101</v>
+        <v>3721.530419</v>
       </c>
       <c r="AG32" t="n">
-        <v>15.84777024</v>
+        <v>13.79244361</v>
       </c>
       <c r="AH32" t="n">
-        <v>134.7394926</v>
+        <v>132.2553094</v>
       </c>
       <c r="AI32" t="n">
-        <v>140.9502107</v>
+        <v>138.4442469</v>
       </c>
       <c r="AJ32" t="n">
-        <v>153.2424287</v>
+        <v>143.7743586</v>
       </c>
       <c r="AK32" t="n">
-        <v>10.13165828</v>
+        <v>9.288776691</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.004682034</v>
+        <v>0.002654812</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.017963279</v>
+        <v>0.016700669</v>
       </c>
       <c r="AN32" t="n">
-        <v>15.87493192</v>
+        <v>8.381549567</v>
       </c>
       <c r="AO32" t="n">
-        <v>901.4395519</v>
+        <v>106.0524419</v>
       </c>
       <c r="AP32" t="n">
-        <v>24.49462967</v>
-      </c>
-      <c r="AQ32"/>
+        <v>3.207124413</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>51.51871362</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -5745,109 +5753,109 @@
         <v>122</v>
       </c>
       <c r="I33" t="n">
-        <v>268.2102863</v>
+        <v>258.6526935</v>
       </c>
       <c r="J33" t="n">
-        <v>0.957842257</v>
+        <v>1.43755431</v>
       </c>
       <c r="K33" t="n">
-        <v>5.822038867</v>
+        <v>7.554204601</v>
       </c>
       <c r="L33" t="n">
-        <v>1511.664196</v>
+        <v>1560.643053</v>
       </c>
       <c r="M33" t="n">
-        <v>778.7088236</v>
+        <v>620.3490534</v>
       </c>
       <c r="N33" t="n">
-        <v>2290.37302</v>
+        <v>2180.992107</v>
       </c>
       <c r="O33" t="n">
-        <v>199.5352242</v>
+        <v>185.7980648</v>
       </c>
       <c r="P33" t="n">
-        <v>3.857953966</v>
+        <v>3.378477788</v>
       </c>
       <c r="Q33" t="n">
-        <v>319.1930086</v>
+        <v>292.7524106</v>
       </c>
       <c r="R33" t="n">
-        <v>438.511535</v>
+        <v>373.8255721</v>
       </c>
       <c r="S33" t="n">
-        <v>18.71150047</v>
+        <v>16.46331573</v>
       </c>
       <c r="T33" t="n">
-        <v>0.611032449</v>
+        <v>0.628856207</v>
       </c>
       <c r="U33" t="n">
-        <v>139.5106364</v>
+        <v>96.25338751</v>
       </c>
       <c r="V33" t="n">
-        <v>0.129972023</v>
+        <v>0.132424064</v>
       </c>
       <c r="W33" t="n">
-        <v>0.834569295</v>
+        <v>0.865672606</v>
       </c>
       <c r="X33" t="n">
-        <v>0.022075044</v>
+        <v>0.025474105</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.341264764</v>
+        <v>0.318230118</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.022075044</v>
+        <v>0.025474105</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.210595565</v>
+        <v>0.191938727</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.316269244</v>
+        <v>0.297786752</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.024995521</v>
+        <v>0.020443366</v>
       </c>
       <c r="AD33" t="n">
-        <v>922.9249376</v>
+        <v>975.9154333</v>
       </c>
       <c r="AE33" t="n">
-        <v>429.6045664</v>
+        <v>423.5793642</v>
       </c>
       <c r="AF33" t="n">
-        <v>3966.291574</v>
+        <v>4000.569382</v>
       </c>
       <c r="AG33" t="n">
-        <v>61.10324493</v>
+        <v>62.88562066</v>
       </c>
       <c r="AH33" t="n">
-        <v>179.9871804</v>
+        <v>0.002051148</v>
       </c>
       <c r="AI33" t="n">
-        <v>90.01558155</v>
+        <v>89.99399254</v>
       </c>
       <c r="AJ33" t="n">
-        <v>153.2472188</v>
+        <v>132.2712944</v>
       </c>
       <c r="AK33" t="n">
-        <v>70.1979224</v>
+        <v>76.14164447</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.00202404</v>
+        <v>0.001855451</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.017036347</v>
+        <v>0.017041815</v>
       </c>
       <c r="AN33" t="n">
-        <v>1.890615519</v>
+        <v>1.92726432</v>
       </c>
       <c r="AO33" t="n">
-        <v>3.038898057</v>
+        <v>2.611422274</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.113272332</v>
+        <v>0.129151334</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.238666782</v>
+        <v>0.26006755</v>
       </c>
     </row>
     <row r="34">
@@ -5876,109 +5884,109 @@
         <v>124</v>
       </c>
       <c r="I34" t="n">
-        <v>6736.908443</v>
+        <v>276.6297744</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.486537556</v>
+        <v>2.405190689</v>
       </c>
       <c r="K34" t="n">
-        <v>6.263529948</v>
+        <v>13.94300025</v>
       </c>
       <c r="L34" t="n">
-        <v>34216.53089</v>
+        <v>2122.423152</v>
       </c>
       <c r="M34" t="n">
-        <v>32585.75683</v>
+        <v>595.280854</v>
       </c>
       <c r="N34" t="n">
-        <v>66802.28772</v>
+        <v>2717.704006</v>
       </c>
       <c r="O34" t="n">
-        <v>5107.251309</v>
+        <v>184.0711974</v>
       </c>
       <c r="P34" t="n">
-        <v>0.105514381</v>
+        <v>0.981711626</v>
       </c>
       <c r="Q34" t="n">
-        <v>7155.428896</v>
+        <v>273.3753027</v>
       </c>
       <c r="R34" t="n">
-        <v>13919.19262</v>
+        <v>344.110462</v>
       </c>
       <c r="S34" t="n">
-        <v>15.00867381</v>
+        <v>12.904238</v>
       </c>
       <c r="T34" t="n">
-        <v>0.211154842</v>
+        <v>0.55942486</v>
       </c>
       <c r="U34" t="n">
-        <v>2.271526595</v>
+        <v>139.7449281</v>
       </c>
       <c r="V34" t="n">
-        <v>1.743635194</v>
+        <v>0.134714721</v>
       </c>
       <c r="W34" t="n">
-        <v>42.91611031</v>
+        <v>0.893213884</v>
       </c>
       <c r="X34" t="n">
-        <v>0.357581289</v>
+        <v>0.032850455</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.513063749</v>
+        <v>0.306223665</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.357581289</v>
+        <v>0.032850455</v>
       </c>
       <c r="AA34" t="n">
-        <v>5.445791994</v>
+        <v>0.173352035</v>
       </c>
       <c r="AB34" t="n">
-        <v>6.649219922</v>
+        <v>0.2869839</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.863843827</v>
+        <v>0.019239765</v>
       </c>
       <c r="AD34" t="n">
-        <v>36413.94575</v>
+        <v>1331.492267</v>
       </c>
       <c r="AE34" t="n">
-        <v>5915.734463</v>
+        <v>405.3116696</v>
       </c>
       <c r="AF34" t="n">
-        <v>2981.899195</v>
+        <v>4273.781081</v>
       </c>
       <c r="AG34" t="n">
-        <v>21.11548421</v>
+        <v>55.94248595</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.00798073</v>
+        <v>136.7283229</v>
       </c>
       <c r="AI34" t="n">
-        <v>134.9988626</v>
+        <v>90.00529309</v>
       </c>
       <c r="AJ34" t="n">
-        <v>89.99970935</v>
+        <v>62.01304534</v>
       </c>
       <c r="AK34" t="n">
-        <v>9.777126324</v>
+        <v>70.38039998</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.00607568</v>
+        <v>0.001054676</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.020364415</v>
+        <v>0.017210394</v>
       </c>
       <c r="AN34" t="n">
-        <v>57.71559877</v>
+        <v>1.927066738</v>
       </c>
       <c r="AO34" t="n">
-        <v>190.1219656</v>
+        <v>2.970543245</v>
       </c>
       <c r="AP34" t="n">
-        <v>6.347774061</v>
+        <v>0.176306286</v>
       </c>
       <c r="AQ34" t="n">
-        <v>5.214910682</v>
+        <v>0.291159602</v>
       </c>
     </row>
     <row r="35">
@@ -6007,109 +6015,109 @@
         <v>126</v>
       </c>
       <c r="I35" t="n">
-        <v>272.1101014</v>
+        <v>271.854084</v>
       </c>
       <c r="J35" t="n">
-        <v>2.455720441</v>
+        <v>2.597504607</v>
       </c>
       <c r="K35" t="n">
-        <v>16.01924143</v>
+        <v>17.00542643</v>
       </c>
       <c r="L35" t="n">
-        <v>2279.047426</v>
+        <v>2329.039412</v>
       </c>
       <c r="M35" t="n">
-        <v>567.8297709</v>
+        <v>558.0604457</v>
       </c>
       <c r="N35" t="n">
-        <v>2846.877197</v>
+        <v>2887.099858</v>
       </c>
       <c r="O35" t="n">
-        <v>185.2479939</v>
+        <v>181.6827543</v>
       </c>
       <c r="P35" t="n">
-        <v>0.683513363</v>
+        <v>0.639515347</v>
       </c>
       <c r="Q35" t="n">
-        <v>269.3552484</v>
+        <v>266.3419531</v>
       </c>
       <c r="R35" t="n">
-        <v>356.4123592</v>
+        <v>353.2661226</v>
       </c>
       <c r="S35" t="n">
-        <v>12.07161166</v>
+        <v>11.69523708</v>
       </c>
       <c r="T35" t="n">
-        <v>0.460535482</v>
+        <v>0.486153572</v>
       </c>
       <c r="U35" t="n">
-        <v>141.2662478</v>
+        <v>142.5026254</v>
       </c>
       <c r="V35" t="n">
-        <v>0.129305919</v>
+        <v>0.129519946</v>
       </c>
       <c r="W35" t="n">
-        <v>0.820897791</v>
+        <v>0.824904294</v>
       </c>
       <c r="X35" t="n">
-        <v>0.02861338</v>
+        <v>0.029551112</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.297972891</v>
+        <v>0.295897665</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.02861338</v>
+        <v>0.029551112</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.185124095</v>
+        <v>0.177734817</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.27841999</v>
+        <v>0.276258126</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.019552901</v>
+        <v>0.019639539</v>
       </c>
       <c r="AD35" t="n">
-        <v>1020.474912</v>
+        <v>1005.073864</v>
       </c>
       <c r="AE35" t="n">
-        <v>404.6169682</v>
+        <v>406.627277</v>
       </c>
       <c r="AF35" t="n">
-        <v>3944.704665</v>
+        <v>3970.125226</v>
       </c>
       <c r="AG35" t="n">
-        <v>46.0535482</v>
+        <v>48.6153572</v>
       </c>
       <c r="AH35" t="n">
-        <v>134.9926004</v>
+        <v>136.7543539</v>
       </c>
       <c r="AI35" t="n">
-        <v>141.2427341</v>
+        <v>142.9281417</v>
       </c>
       <c r="AJ35" t="n">
-        <v>153.5460503</v>
+        <v>117.9905232</v>
       </c>
       <c r="AK35" t="n">
-        <v>49.40277002</v>
+        <v>49.55369005</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.001002004</v>
+        <v>0.000983287</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.017398452</v>
+        <v>0.017516735</v>
       </c>
       <c r="AN35" t="n">
-        <v>1.744211615</v>
+        <v>1.73725524</v>
       </c>
       <c r="AO35" t="n">
-        <v>3.085147178</v>
+        <v>2.970543245</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.134925464</v>
+        <v>0.117751261</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.238004333</v>
+        <v>0.29571311</v>
       </c>
     </row>
     <row r="36">
@@ -6138,109 +6146,109 @@
         <v>128</v>
       </c>
       <c r="I36" t="n">
-        <v>670.028925</v>
+        <v>355.0215843</v>
       </c>
       <c r="J36" t="n">
-        <v>3.263361049</v>
+        <v>3.938460981</v>
       </c>
       <c r="K36" t="n">
-        <v>20.19228299</v>
+        <v>27.83560555</v>
       </c>
       <c r="L36" t="n">
-        <v>5438.377664</v>
+        <v>3513.074068</v>
       </c>
       <c r="M36" t="n">
-        <v>1348.710837</v>
+        <v>532.489779</v>
       </c>
       <c r="N36" t="n">
-        <v>6787.088501</v>
+        <v>4045.563847</v>
       </c>
       <c r="O36" t="n">
-        <v>405.9908506</v>
+        <v>215.0064892</v>
       </c>
       <c r="P36" t="n">
-        <v>0.337880491</v>
+        <v>0.361308592</v>
       </c>
       <c r="Q36" t="n">
-        <v>536.6192225</v>
+        <v>301.5185652</v>
       </c>
       <c r="R36" t="n">
-        <v>715.2253088</v>
+        <v>294.8088134</v>
       </c>
       <c r="S36" t="n">
-        <v>16.85396197</v>
+        <v>11.6118993</v>
       </c>
       <c r="T36" t="n">
-        <v>0.202966844</v>
+        <v>0.848589231</v>
       </c>
       <c r="U36" t="n">
-        <v>119.2550587</v>
+        <v>160.4993729</v>
       </c>
       <c r="V36" t="n">
-        <v>0.156009979</v>
+        <v>0.155240758</v>
       </c>
       <c r="W36" t="n">
-        <v>1.152492531</v>
+        <v>1.166251403</v>
       </c>
       <c r="X36" t="n">
-        <v>0.091452014</v>
+        <v>0.045940241</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.628063491</v>
+        <v>0.347474186</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.091452014</v>
+        <v>0.045940241</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.357923331</v>
+        <v>0.187985337</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.586815581</v>
+        <v>0.332246594</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.04124791</v>
+        <v>0.015227592</v>
       </c>
       <c r="AD36" t="n">
-        <v>2220.795143</v>
+        <v>1196.351258</v>
       </c>
       <c r="AE36" t="n">
-        <v>617.4576657</v>
+        <v>487.1046645</v>
       </c>
       <c r="AF36" t="n">
-        <v>3813.273829</v>
+        <v>4203.960402</v>
       </c>
       <c r="AG36" t="n">
-        <v>20.29668437</v>
+        <v>84.85892312</v>
       </c>
       <c r="AH36" t="n">
-        <v>116.2710746</v>
+        <v>179.9932889</v>
       </c>
       <c r="AI36" t="n">
-        <v>134.4732986</v>
+        <v>89.98636189</v>
       </c>
       <c r="AJ36" t="n">
-        <v>45.52267076</v>
+        <v>137.0804414</v>
       </c>
       <c r="AK36" t="n">
-        <v>23.96180051</v>
+        <v>85.31326846</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.005639397</v>
+        <v>0.000505788</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.017935868</v>
+        <v>0.017674589</v>
       </c>
       <c r="AN36" t="n">
-        <v>1.865109313</v>
+        <v>2.199619996</v>
       </c>
       <c r="AO36" t="n">
-        <v>3.0650961</v>
+        <v>2.47860334</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.407635958</v>
+        <v>0.271082561</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.777057899</v>
+        <v>0.42299359</v>
       </c>
     </row>
     <row r="37">
@@ -6269,109 +6277,109 @@
         <v>130</v>
       </c>
       <c r="I37" t="n">
-        <v>1286.549012</v>
+        <v>1534.184797</v>
       </c>
       <c r="J37" t="n">
-        <v>4.612005211</v>
+        <v>3.837373164</v>
       </c>
       <c r="K37" t="n">
-        <v>31.38374915</v>
+        <v>22.28551702</v>
       </c>
       <c r="L37" t="n">
-        <v>11399.7358</v>
+        <v>11423.77761</v>
       </c>
       <c r="M37" t="n">
-        <v>1461.021793</v>
+        <v>1563.633884</v>
       </c>
       <c r="N37" t="n">
-        <v>12860.75759</v>
+        <v>12987.41149</v>
       </c>
       <c r="O37" t="n">
-        <v>666.032938</v>
+        <v>892.522228</v>
       </c>
       <c r="P37" t="n">
-        <v>0.26234015</v>
+        <v>0.363643009</v>
       </c>
       <c r="Q37" t="n">
-        <v>694.5434886</v>
+        <v>1168.782271</v>
       </c>
       <c r="R37" t="n">
-        <v>941.495469</v>
+        <v>941.6835637</v>
       </c>
       <c r="S37" t="n">
-        <v>18.53867485</v>
+        <v>17.95372013</v>
       </c>
       <c r="T37" t="n">
-        <v>0.294915216</v>
+        <v>0.30472386</v>
       </c>
       <c r="U37" t="n">
-        <v>131.5048536</v>
+        <v>130.7569005</v>
       </c>
       <c r="V37" t="n">
-        <v>0.237035884</v>
+        <v>0.285782872</v>
       </c>
       <c r="W37" t="n">
-        <v>2.18907019</v>
+        <v>2.994268055</v>
       </c>
       <c r="X37" t="n">
-        <v>0.207774228</v>
+        <v>0.228471475</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.902326932</v>
+        <v>1.397259382</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.207774228</v>
+        <v>0.228471475</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.525459467</v>
+        <v>0.692788567</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.85032605</v>
+        <v>1.350986502</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.052000881</v>
+        <v>0.046272881</v>
       </c>
       <c r="AD37" t="n">
-        <v>3696.651144</v>
+        <v>4292.363619</v>
       </c>
       <c r="AE37" t="n">
-        <v>885.8258859</v>
+        <v>1158.132539</v>
       </c>
       <c r="AF37" t="n">
-        <v>3790.769245</v>
+        <v>3663.426743</v>
       </c>
       <c r="AG37" t="n">
-        <v>29.49152155</v>
+        <v>30.47238599</v>
       </c>
       <c r="AH37" t="n">
-        <v>134.4655157</v>
+        <v>137.0463242</v>
       </c>
       <c r="AI37" t="n">
-        <v>116.2941424</v>
+        <v>117.9718251</v>
       </c>
       <c r="AJ37" t="n">
-        <v>123.2514595</v>
+        <v>130.5533832</v>
       </c>
       <c r="AK37" t="n">
-        <v>15.40747927</v>
+        <v>11.44649417</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.005881856</v>
+        <v>0.005533185</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.017903752</v>
+        <v>0.017649871</v>
       </c>
       <c r="AN37" t="n">
-        <v>2.923807427</v>
+        <v>3.586043917</v>
       </c>
       <c r="AO37" t="n">
-        <v>5.774415841</v>
+        <v>6.208224478</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.94778624</v>
+        <v>1.08001517</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.284528912</v>
+        <v>2.375252261</v>
       </c>
     </row>
     <row r="38">
@@ -7972,109 +7980,109 @@
         <v>160</v>
       </c>
       <c r="I50" t="n">
-        <v>341.9714146</v>
+        <v>1054.717401</v>
       </c>
       <c r="J50" t="n">
-        <v>1.59179137</v>
+        <v>0.415340997</v>
       </c>
       <c r="K50" t="n">
-        <v>8.624208013</v>
+        <v>5.834651534</v>
       </c>
       <c r="L50" t="n">
-        <v>2277.309322</v>
+        <v>5242.157964</v>
       </c>
       <c r="M50" t="n">
-        <v>702.2455598</v>
+        <v>3599.902021</v>
       </c>
       <c r="N50" t="n">
-        <v>2979.554881</v>
+        <v>8842.059985</v>
       </c>
       <c r="O50" t="n">
-        <v>251.2351014</v>
+        <v>756.6981593</v>
       </c>
       <c r="P50" t="n">
-        <v>0.776851083</v>
+        <v>0.444698432</v>
       </c>
       <c r="Q50" t="n">
-        <v>410.1919583</v>
+        <v>959.5668927</v>
       </c>
       <c r="R50" t="n">
-        <v>446.2711067</v>
+        <v>2166.229871</v>
       </c>
       <c r="S50" t="n">
-        <v>11.42458399</v>
+        <v>27.90279988</v>
       </c>
       <c r="T50" t="n">
-        <v>0.32412919</v>
+        <v>0.675121289</v>
       </c>
       <c r="U50" t="n">
-        <v>139.5039625</v>
+        <v>141.0036991</v>
       </c>
       <c r="V50" t="n">
-        <v>0.145806234</v>
+        <v>0.24906633</v>
       </c>
       <c r="W50" t="n">
-        <v>1.039201022</v>
+        <v>2.643115916</v>
       </c>
       <c r="X50" t="n">
-        <v>0.030279185</v>
+        <v>0.096331149</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.440474722</v>
+        <v>1.055906293</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.030279185</v>
+        <v>0.096331149</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.269104046</v>
+        <v>0.802907812</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.418905558</v>
+        <v>0.913723564</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.021569164</v>
+        <v>0.142182729</v>
       </c>
       <c r="AD50" t="n">
-        <v>1706.318048</v>
+        <v>4144.702076</v>
       </c>
       <c r="AE50" t="n">
-        <v>583.489414</v>
+        <v>972.4493532</v>
       </c>
       <c r="AF50" t="n">
-        <v>3795.370589</v>
+        <v>3810.269523</v>
       </c>
       <c r="AG50" t="n">
-        <v>32.41291901</v>
+        <v>67.5121289</v>
       </c>
       <c r="AH50" t="n">
-        <v>90.02227081</v>
+        <v>0.01544328</v>
       </c>
       <c r="AI50" t="n">
-        <v>133.6746589</v>
+        <v>135.0043299</v>
       </c>
       <c r="AJ50" t="n">
-        <v>46.31342558</v>
+        <v>89.96686638</v>
       </c>
       <c r="AK50" t="n">
-        <v>27.60586477</v>
+        <v>36.86217471</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.001301212</v>
+        <v>0.001190139</v>
       </c>
       <c r="AM50" t="n">
-        <v>0.017269859</v>
+        <v>0.017310616</v>
       </c>
       <c r="AN50" t="n">
-        <v>2.177505677</v>
+        <v>4.703858879</v>
       </c>
       <c r="AO50" t="n">
-        <v>2.821204167</v>
+        <v>5.729197019</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.166294709</v>
+        <v>0.704974405</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.409627187</v>
+        <v>0.991420704</v>
       </c>
     </row>
     <row r="51">
@@ -8103,109 +8111,109 @@
         <v>162</v>
       </c>
       <c r="I51" t="n">
-        <v>253.9724722</v>
+        <v>254.3089645</v>
       </c>
       <c r="J51" t="n">
-        <v>0.798411378</v>
+        <v>0.745442157</v>
       </c>
       <c r="K51" t="n">
-        <v>4.422783686</v>
+        <v>4.274664369</v>
       </c>
       <c r="L51" t="n">
-        <v>1366.481081</v>
+        <v>1316.611469</v>
       </c>
       <c r="M51" t="n">
-        <v>637.8197156</v>
+        <v>642.3195513</v>
       </c>
       <c r="N51" t="n">
-        <v>2004.300796</v>
+        <v>1958.93102</v>
       </c>
       <c r="O51" t="n">
-        <v>194.5095992</v>
+        <v>195.2909404</v>
       </c>
       <c r="P51" t="n">
-        <v>8.104592827</v>
+        <v>10.5227884</v>
       </c>
       <c r="Q51" t="n">
-        <v>325.9926041</v>
+        <v>326.6505224</v>
       </c>
       <c r="R51" t="n">
-        <v>396.198774</v>
+        <v>405.3265436</v>
       </c>
       <c r="S51" t="n">
-        <v>9.760738069</v>
+        <v>9.982414799</v>
       </c>
       <c r="T51" t="n">
-        <v>0.220929053</v>
+        <v>0.216737569</v>
       </c>
       <c r="U51" t="n">
-        <v>147.7465615</v>
+        <v>81.74911091</v>
       </c>
       <c r="V51" t="n">
-        <v>0.135463868</v>
+        <v>0.13352222</v>
       </c>
       <c r="W51" t="n">
-        <v>0.90247215</v>
+        <v>0.879792439</v>
       </c>
       <c r="X51" t="n">
-        <v>0.018870257</v>
+        <v>0.018544345</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.344872215</v>
+        <v>0.345193972</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.018870257</v>
+        <v>0.018544345</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.211096307</v>
+        <v>0.211769316</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.323130963</v>
+        <v>0.322841909</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.021741252</v>
+        <v>0.022352063</v>
       </c>
       <c r="AD51" t="n">
-        <v>1008.214801</v>
+        <v>994.6832481</v>
       </c>
       <c r="AE51" t="n">
-        <v>486.3757266</v>
+        <v>483.2692931</v>
       </c>
       <c r="AF51" t="n">
-        <v>3765.817019</v>
+        <v>3763.871834</v>
       </c>
       <c r="AG51" t="n">
-        <v>22.09290534</v>
+        <v>21.67375688</v>
       </c>
       <c r="AH51" t="n">
-        <v>90.00130436</v>
+        <v>89.99638314</v>
       </c>
       <c r="AI51" t="n">
-        <v>135.4731143</v>
+        <v>134.9852396</v>
       </c>
       <c r="AJ51" t="n">
-        <v>44.48378637</v>
+        <v>153.4952576</v>
       </c>
       <c r="AK51" t="n">
-        <v>25.2548775</v>
+        <v>25.02490074</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.001030343</v>
+        <v>0.001230897</v>
       </c>
       <c r="AM51" t="n">
-        <v>0.017679613</v>
+        <v>0.017617651</v>
       </c>
       <c r="AN51" t="n">
-        <v>1.923403135</v>
+        <v>1.899104338</v>
       </c>
       <c r="AO51" t="n">
-        <v>3.001258576</v>
+        <v>3.043267916</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.105145432</v>
+        <v>0.117364439</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.20196035</v>
+        <v>0.24847838</v>
       </c>
     </row>
     <row r="52">
@@ -8225,118 +8233,118 @@
         <v>105</v>
       </c>
       <c r="F52" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G52" t="s">
         <v>49</v>
       </c>
       <c r="H52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I52" t="n">
-        <v>341.9714146</v>
+        <v>294.1646314</v>
       </c>
       <c r="J52" t="n">
-        <v>1.59179137</v>
+        <v>1.77914073</v>
       </c>
       <c r="K52" t="n">
-        <v>8.624208013</v>
+        <v>7.513367069</v>
       </c>
       <c r="L52" t="n">
-        <v>2277.309322</v>
+        <v>1765.114463</v>
       </c>
       <c r="M52" t="n">
-        <v>702.2455598</v>
+        <v>487.0088393</v>
       </c>
       <c r="N52" t="n">
-        <v>2979.554881</v>
+        <v>2252.123302</v>
       </c>
       <c r="O52" t="n">
-        <v>251.2351014</v>
+        <v>213.8302978</v>
       </c>
       <c r="P52" t="n">
-        <v>0.776851083</v>
+        <v>2.812592399</v>
       </c>
       <c r="Q52" t="n">
-        <v>410.1919583</v>
+        <v>370.2489603</v>
       </c>
       <c r="R52" t="n">
-        <v>446.2711067</v>
+        <v>285.2495176</v>
       </c>
       <c r="S52" t="n">
-        <v>11.42458399</v>
+        <v>8.238521804</v>
       </c>
       <c r="T52" t="n">
-        <v>0.32412919</v>
+        <v>0.467870963</v>
       </c>
       <c r="U52" t="n">
-        <v>139.5039625</v>
+        <v>147.7577079</v>
       </c>
       <c r="V52" t="n">
-        <v>0.145806234</v>
+        <v>0.177409437</v>
       </c>
       <c r="W52" t="n">
-        <v>1.039201022</v>
+        <v>1.523386446</v>
       </c>
       <c r="X52" t="n">
-        <v>0.030279185</v>
+        <v>0.030214796</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.440474722</v>
+        <v>0.400455916</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.030279185</v>
+        <v>0.030214796</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.269104046</v>
+        <v>0.205387683</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.418905558</v>
+        <v>0.38652077</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.021569164</v>
+        <v>0.013935146</v>
       </c>
       <c r="AD52" t="n">
-        <v>1706.318048</v>
+        <v>1169.070882</v>
       </c>
       <c r="AE52" t="n">
-        <v>583.489414</v>
+        <v>619.841719</v>
       </c>
       <c r="AF52" t="n">
-        <v>3795.370589</v>
+        <v>4180.199723</v>
       </c>
       <c r="AG52" t="n">
-        <v>32.41291901</v>
+        <v>46.78709631</v>
       </c>
       <c r="AH52" t="n">
-        <v>90.02227081</v>
+        <v>134.9816309</v>
       </c>
       <c r="AI52" t="n">
-        <v>133.6746589</v>
+        <v>45.01598641</v>
       </c>
       <c r="AJ52" t="n">
-        <v>46.31342558</v>
+        <v>179.9676653</v>
       </c>
       <c r="AK52" t="n">
-        <v>27.60586477</v>
+        <v>56.24966529</v>
       </c>
       <c r="AL52" t="n">
-        <v>0.001301212</v>
+        <v>0.000247975</v>
       </c>
       <c r="AM52" t="n">
-        <v>0.017269859</v>
+        <v>0.017725269</v>
       </c>
       <c r="AN52" t="n">
-        <v>2.177505677</v>
+        <v>3.326826447</v>
       </c>
       <c r="AO52" t="n">
-        <v>2.821204167</v>
+        <v>3.000381979</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.166294709</v>
+        <v>0.079811878</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.409627187</v>
+        <v>0.333455395</v>
       </c>
     </row>
     <row r="53">
@@ -8356,118 +8364,118 @@
         <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G53" t="s">
         <v>49</v>
       </c>
       <c r="H53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I53" t="n">
-        <v>324.3329491</v>
+        <v>326.4519517</v>
       </c>
       <c r="J53" t="n">
-        <v>1.152325718</v>
+        <v>1.260970532</v>
       </c>
       <c r="K53" t="n">
-        <v>6.012225894</v>
+        <v>6.647423702</v>
       </c>
       <c r="L53" t="n">
-        <v>1868.990043</v>
+        <v>2005.049409</v>
       </c>
       <c r="M53" t="n">
-        <v>858.0769</v>
+        <v>898.0444557</v>
       </c>
       <c r="N53" t="n">
-        <v>2727.066943</v>
+        <v>2903.093864</v>
       </c>
       <c r="O53" t="n">
-        <v>237.0688224</v>
+        <v>240.5792629</v>
       </c>
       <c r="P53" t="n">
-        <v>1.697975308</v>
+        <v>1.101585107</v>
       </c>
       <c r="Q53" t="n">
-        <v>413.83243</v>
+        <v>412.8222529</v>
       </c>
       <c r="R53" t="n">
-        <v>474.4438646</v>
+        <v>455.0295672</v>
       </c>
       <c r="S53" t="n">
-        <v>9.960435545</v>
+        <v>10.38493882</v>
       </c>
       <c r="T53" t="n">
-        <v>0.3428822</v>
+        <v>0.343682733</v>
       </c>
       <c r="U53" t="n">
-        <v>81.49932633</v>
+        <v>87.23978454</v>
       </c>
       <c r="V53" t="n">
-        <v>0.158339105</v>
+        <v>0.156212371</v>
       </c>
       <c r="W53" t="n">
-        <v>1.21078927</v>
+        <v>1.185226282</v>
       </c>
       <c r="X53" t="n">
-        <v>0.027001496</v>
+        <v>0.027672744</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.440837612</v>
+        <v>0.440503502</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.027001496</v>
+        <v>0.027672744</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.259885013</v>
+        <v>0.253876732</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.415182812</v>
+        <v>0.415623885</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.0256548</v>
+        <v>0.024879616</v>
       </c>
       <c r="AD53" t="n">
-        <v>1369.203203</v>
+        <v>1266.812043</v>
       </c>
       <c r="AE53" t="n">
-        <v>620.2857218</v>
+        <v>633.5974846</v>
       </c>
       <c r="AF53" t="n">
-        <v>3823.494192</v>
+        <v>3781.613277</v>
       </c>
       <c r="AG53" t="n">
-        <v>34.28821996</v>
+        <v>34.36827327</v>
       </c>
       <c r="AH53" t="n">
-        <v>133.6841431</v>
+        <v>135.0091529</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.010377767</v>
+        <v>0.002767796</v>
       </c>
       <c r="AJ53" t="n">
-        <v>89.99561966</v>
+        <v>90.01815818</v>
       </c>
       <c r="AK53" t="n">
-        <v>31.16455078</v>
+        <v>30.92313344</v>
       </c>
       <c r="AL53" t="n">
-        <v>0.001545301</v>
+        <v>0.00081821</v>
       </c>
       <c r="AM53" t="n">
-        <v>0.017154378</v>
+        <v>0.017414728</v>
       </c>
       <c r="AN53" t="n">
-        <v>2.546469017</v>
+        <v>2.480172637</v>
       </c>
       <c r="AO53" t="n">
-        <v>3.856257429</v>
+        <v>3.000381979</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.199695555</v>
+        <v>0.213414368</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.400765612</v>
+        <v>0.41386215</v>
       </c>
     </row>
     <row r="54">
@@ -8487,118 +8495,118 @@
         <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G54" t="s">
         <v>49</v>
       </c>
       <c r="H54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I54" t="n">
-        <v>1613.000747</v>
+        <v>279.1231757</v>
       </c>
       <c r="J54" t="n">
-        <v>1.740260428</v>
+        <v>1.551713494</v>
       </c>
       <c r="K54" t="n">
-        <v>16.96698217</v>
+        <v>6.488175172</v>
       </c>
       <c r="L54" t="n">
-        <v>11703.49581</v>
+        <v>1675.113806</v>
       </c>
       <c r="M54" t="n">
-        <v>6394.325294</v>
+        <v>514.0176541</v>
       </c>
       <c r="N54" t="n">
-        <v>18097.8211</v>
+        <v>2189.13146</v>
       </c>
       <c r="O54" t="n">
-        <v>975.6270955</v>
+        <v>209.1897167</v>
       </c>
       <c r="P54" t="n">
-        <v>0.277990784</v>
+        <v>2.990850246</v>
       </c>
       <c r="Q54" t="n">
-        <v>1095.350839</v>
+        <v>367.0962672</v>
       </c>
       <c r="R54" t="n">
-        <v>3283.518009</v>
+        <v>282.2586869</v>
       </c>
       <c r="S54" t="n">
-        <v>15.79150283</v>
+        <v>7.979502208</v>
       </c>
       <c r="T54" t="n">
-        <v>0.280734202</v>
+        <v>0.639836632</v>
       </c>
       <c r="U54" t="n">
-        <v>36.75134689</v>
+        <v>171.7418028</v>
       </c>
       <c r="V54" t="n">
-        <v>0.258534718</v>
+        <v>0.176467822</v>
       </c>
       <c r="W54" t="n">
-        <v>2.424321649</v>
+        <v>1.514612102</v>
       </c>
       <c r="X54" t="n">
-        <v>0.157249988</v>
+        <v>0.025449992</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.252604104</v>
+        <v>0.392549062</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.157249988</v>
+        <v>0.025449992</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.83377566</v>
+        <v>0.20821724</v>
       </c>
       <c r="AB54" t="n">
-        <v>1.030251246</v>
+        <v>0.379324997</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.222352858</v>
+        <v>0.013224065</v>
       </c>
       <c r="AD54" t="n">
-        <v>5958.236784</v>
+        <v>1161.575517</v>
       </c>
       <c r="AE54" t="n">
-        <v>740.1220431</v>
+        <v>564.2698689</v>
       </c>
       <c r="AF54" t="n">
-        <v>3780.972693</v>
+        <v>4201.497127</v>
       </c>
       <c r="AG54" t="n">
-        <v>28.0734202</v>
+        <v>63.98366321</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.010241503</v>
+        <v>45.00598592</v>
       </c>
       <c r="AI54" t="n">
-        <v>45.53119675</v>
+        <v>135.0007075</v>
       </c>
       <c r="AJ54" t="n">
-        <v>90.00523546</v>
+        <v>89.98398766</v>
       </c>
       <c r="AK54" t="n">
-        <v>26.99965017</v>
+        <v>69.2816661</v>
       </c>
       <c r="AL54" t="n">
-        <v>0.00460723</v>
+        <v>0.000933071</v>
       </c>
       <c r="AM54" t="n">
-        <v>0.019601813</v>
+        <v>0.017818137</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.344373143</v>
+        <v>3.313344849</v>
       </c>
       <c r="AO54" t="n">
-        <v>10.68160688</v>
+        <v>2.623174097</v>
       </c>
       <c r="AP54" t="n">
-        <v>0.77744914</v>
+        <v>0.094490189</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.778531716</v>
+        <v>0.349908753</v>
       </c>
     </row>
     <row r="55">
@@ -8618,123 +8626,123 @@
         <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G55" t="s">
         <v>49</v>
       </c>
       <c r="H55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I55" t="n">
-        <v>230.0779009</v>
+        <v>247.7535047</v>
       </c>
       <c r="J55" t="n">
-        <v>1.121961526</v>
+        <v>1.417093292</v>
       </c>
       <c r="K55" t="n">
-        <v>6.412920592</v>
+        <v>7.52092075</v>
       </c>
       <c r="L55" t="n">
-        <v>1406.673903</v>
+        <v>1562.945461</v>
       </c>
       <c r="M55" t="n">
-        <v>681.7581146</v>
+        <v>708.8888832</v>
       </c>
       <c r="N55" t="n">
-        <v>2088.432018</v>
+        <v>2271.834345</v>
       </c>
       <c r="O55" t="n">
-        <v>169.2426642</v>
+        <v>181.220634</v>
       </c>
       <c r="P55" t="n">
-        <v>4.988409627</v>
+        <v>2.91089814</v>
       </c>
       <c r="Q55" t="n">
-        <v>273.1749886</v>
+        <v>296.8922187</v>
       </c>
       <c r="R55" t="n">
-        <v>350.817832</v>
+        <v>336.091113</v>
       </c>
       <c r="S55" t="n">
-        <v>11.28778015</v>
+        <v>9.461213333</v>
       </c>
       <c r="T55" t="n">
-        <v>0.529650086</v>
+        <v>0.496202042</v>
       </c>
       <c r="U55" t="n">
-        <v>121.7503095</v>
+        <v>121.5010051</v>
       </c>
       <c r="V55" t="n">
-        <v>0.11955038</v>
+        <v>0.124593565</v>
       </c>
       <c r="W55" t="n">
-        <v>0.703747994</v>
+        <v>0.763795197</v>
       </c>
       <c r="X55" t="n">
-        <v>0.020221855</v>
+        <v>0.022694559</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.293399783</v>
+        <v>0.319590298</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.020221855</v>
+        <v>0.022694559</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.172659644</v>
+        <v>0.18033413</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.27293317</v>
+        <v>0.300945943</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.020466613</v>
+        <v>0.018644355</v>
       </c>
       <c r="AD55" t="n">
-        <v>1035.987575</v>
+        <v>1179.235978</v>
       </c>
       <c r="AE55" t="n">
-        <v>433.9577108</v>
+        <v>445.4670168</v>
       </c>
       <c r="AF55" t="n">
-        <v>3871.51032</v>
+        <v>3838.183571</v>
       </c>
       <c r="AG55" t="n">
-        <v>52.96500858</v>
+        <v>49.62020417</v>
       </c>
       <c r="AH55" t="n">
-        <v>116.2518519</v>
+        <v>0.033417051</v>
       </c>
       <c r="AI55" t="n">
-        <v>0.021421843</v>
+        <v>45.0477131</v>
       </c>
       <c r="AJ55" t="n">
-        <v>45.53544277</v>
+        <v>135.0139297</v>
       </c>
       <c r="AK55" t="n">
-        <v>70.86280919</v>
+        <v>62.79453849</v>
       </c>
       <c r="AL55" t="n">
-        <v>0.001739013</v>
+        <v>0.001550293</v>
       </c>
       <c r="AM55" t="n">
-        <v>0.017529309</v>
+        <v>0.017750649</v>
       </c>
       <c r="AN55" t="n">
-        <v>1.508613052</v>
+        <v>1.551670449</v>
       </c>
       <c r="AO55" t="n">
-        <v>4.140307313</v>
+        <v>3.57254943</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.210825984</v>
+        <v>0.195864688</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.359420499</v>
+        <v>0.472989876</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
         <v>44</v>
@@ -8749,13 +8757,13 @@
         <v>47</v>
       </c>
       <c r="F56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G56" t="s">
         <v>49</v>
       </c>
       <c r="H56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I56" t="n">
         <v>934.392319</v>
@@ -8865,7 +8873,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
         <v>44</v>
@@ -8880,13 +8888,13 @@
         <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G57" t="s">
         <v>49</v>
       </c>
       <c r="H57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I57" t="n">
         <v>2123.763956</v>
@@ -8996,7 +9004,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
         <v>54</v>
@@ -9011,13 +9019,13 @@
         <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G58" t="s">
         <v>49</v>
       </c>
       <c r="H58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I58" t="n">
         <v>905.9289232</v>
@@ -9127,7 +9135,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B59" t="s">
         <v>54</v>
@@ -9142,13 +9150,13 @@
         <v>47</v>
       </c>
       <c r="F59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G59" t="s">
         <v>49</v>
       </c>
       <c r="H59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I59" t="n">
         <v>2609.824911</v>
@@ -9258,7 +9266,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
@@ -9273,13 +9281,13 @@
         <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G60" t="s">
         <v>49</v>
       </c>
       <c r="H60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I60" t="n">
         <v>1873.381768</v>
@@ -9385,7 +9393,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
@@ -9400,13 +9408,13 @@
         <v>47</v>
       </c>
       <c r="F61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G61" t="s">
         <v>49</v>
       </c>
       <c r="H61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I61" t="n">
         <v>1958.714405</v>
@@ -9516,7 +9524,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B62" t="s">
         <v>44</v>
@@ -9531,13 +9539,13 @@
         <v>132</v>
       </c>
       <c r="F62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G62" t="s">
         <v>49</v>
       </c>
       <c r="H62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I62" t="n">
         <v>441.9025881</v>
@@ -9647,7 +9655,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
         <v>44</v>
@@ -9662,13 +9670,13 @@
         <v>132</v>
       </c>
       <c r="F63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G63" t="s">
         <v>49</v>
       </c>
       <c r="H63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I63" t="n">
         <v>313.1517826</v>
@@ -9778,7 +9786,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B64" t="s">
         <v>54</v>
@@ -9793,13 +9801,13 @@
         <v>132</v>
       </c>
       <c r="F64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G64" t="s">
         <v>49</v>
       </c>
       <c r="H64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I64" t="n">
         <v>1323.786513</v>
@@ -9905,7 +9913,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B65" t="s">
         <v>54</v>
@@ -9920,13 +9928,13 @@
         <v>132</v>
       </c>
       <c r="F65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G65" t="s">
         <v>49</v>
       </c>
       <c r="H65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I65" t="n">
         <v>1323.786513</v>
@@ -10032,7 +10040,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B66" t="s">
         <v>59</v>
@@ -10047,13 +10055,13 @@
         <v>132</v>
       </c>
       <c r="F66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G66" t="s">
         <v>49</v>
       </c>
       <c r="H66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I66" t="n">
         <v>1132.373931</v>
@@ -10163,7 +10171,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B67" t="s">
         <v>59</v>
@@ -10178,13 +10186,13 @@
         <v>132</v>
       </c>
       <c r="F67" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G67" t="s">
         <v>49</v>
       </c>
       <c r="H67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I67" t="n">
         <v>731.0606362</v>
@@ -10294,7 +10302,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B68" t="s">
         <v>44</v>
@@ -10309,13 +10317,13 @@
         <v>132</v>
       </c>
       <c r="F68" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G68" t="s">
         <v>49</v>
       </c>
       <c r="H68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I68" t="n">
         <v>464.9028882</v>
@@ -10421,7 +10429,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B69" t="s">
         <v>44</v>
@@ -10436,13 +10444,13 @@
         <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G69" t="s">
         <v>49</v>
       </c>
       <c r="H69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I69" t="n">
         <v>989.3351292</v>
@@ -10548,7 +10556,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B70" t="s">
         <v>54</v>
@@ -10563,13 +10571,13 @@
         <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G70" t="s">
         <v>49</v>
       </c>
       <c r="H70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I70" t="n">
         <v>641.5929427</v>
@@ -10675,7 +10683,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B71" t="s">
         <v>54</v>
@@ -10690,13 +10698,13 @@
         <v>132</v>
       </c>
       <c r="F71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G71" t="s">
         <v>49</v>
       </c>
       <c r="H71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I71" t="n">
         <v>757.8235215</v>
@@ -10806,7 +10814,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B72" t="s">
         <v>59</v>
@@ -10821,13 +10829,13 @@
         <v>132</v>
       </c>
       <c r="F72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G72" t="s">
         <v>49</v>
       </c>
       <c r="H72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I72" t="n">
         <v>597.2663897</v>
@@ -10937,7 +10945,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B73" t="s">
         <v>59</v>
@@ -10952,13 +10960,13 @@
         <v>132</v>
       </c>
       <c r="F73" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G73" t="s">
         <v>49</v>
       </c>
       <c r="H73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I73" t="n">
         <v>555.7823599</v>
@@ -11068,7 +11076,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B74" t="s">
         <v>44</v>
@@ -11077,19 +11085,19 @@
         <v>45</v>
       </c>
       <c r="D74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E74" t="s">
         <v>132</v>
       </c>
       <c r="F74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G74" t="s">
         <v>49</v>
       </c>
       <c r="H74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I74" t="n">
         <v>854.6914493</v>
@@ -11199,7 +11207,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B75" t="s">
         <v>44</v>
@@ -11208,19 +11216,19 @@
         <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E75" t="s">
         <v>132</v>
       </c>
       <c r="F75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G75" t="s">
         <v>49</v>
       </c>
       <c r="H75" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I75" t="n">
         <v>856.2332375</v>
@@ -11330,7 +11338,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B76" t="s">
         <v>54</v>
@@ -11339,19 +11347,19 @@
         <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E76" t="s">
         <v>132</v>
       </c>
       <c r="F76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G76" t="s">
         <v>49</v>
       </c>
       <c r="H76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I76" t="n">
         <v>1704.418641</v>
@@ -11461,7 +11469,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B77" t="s">
         <v>54</v>
@@ -11470,19 +11478,19 @@
         <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E77" t="s">
         <v>132</v>
       </c>
       <c r="F77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G77" t="s">
         <v>49</v>
       </c>
       <c r="H77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I77" t="n">
         <v>1893.416787</v>
@@ -11592,7 +11600,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B78" t="s">
         <v>59</v>
@@ -11601,19 +11609,19 @@
         <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E78" t="s">
         <v>132</v>
       </c>
       <c r="F78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G78" t="s">
         <v>49</v>
       </c>
       <c r="H78" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I78" t="n">
         <v>1366.972348</v>
@@ -11723,7 +11731,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B79" t="s">
         <v>59</v>
@@ -11732,19 +11740,19 @@
         <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E79" t="s">
         <v>132</v>
       </c>
       <c r="F79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
       </c>
       <c r="H79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I79" t="n">
         <v>1420.726252</v>
@@ -11854,7 +11862,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B80" t="s">
         <v>44</v>
@@ -11863,19 +11871,19 @@
         <v>45</v>
       </c>
       <c r="D80" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E80" t="s">
         <v>65</v>
       </c>
       <c r="F80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G80" t="s">
         <v>49</v>
       </c>
       <c r="H80" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I80" t="n">
         <v>1378.093832</v>
@@ -11985,7 +11993,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s">
         <v>44</v>
@@ -11994,19 +12002,19 @@
         <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E81" t="s">
         <v>65</v>
       </c>
       <c r="F81" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G81" t="s">
         <v>49</v>
       </c>
       <c r="H81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I81" t="n">
         <v>1510.001859</v>
@@ -12116,7 +12124,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s">
         <v>54</v>
@@ -12125,19 +12133,19 @@
         <v>45</v>
       </c>
       <c r="D82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E82" t="s">
         <v>65</v>
       </c>
       <c r="F82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G82" t="s">
         <v>49</v>
       </c>
       <c r="H82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I82" t="n">
         <v>1889.483543</v>
@@ -12247,7 +12255,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B83" t="s">
         <v>54</v>
@@ -12256,19 +12264,19 @@
         <v>51</v>
       </c>
       <c r="D83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E83" t="s">
         <v>65</v>
       </c>
       <c r="F83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G83" t="s">
         <v>49</v>
       </c>
       <c r="H83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I83" t="n">
         <v>2127.481145</v>
@@ -12378,7 +12386,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B84" t="s">
         <v>59</v>
@@ -12387,7 +12395,7 @@
         <v>45</v>
       </c>
       <c r="D84" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E84" t="s">
         <v>65</v>
@@ -12399,7 +12407,7 @@
         <v>49</v>
       </c>
       <c r="H84" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I84" t="n">
         <v>1214.990608</v>
@@ -12503,7 +12511,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B85" t="s">
         <v>59</v>
@@ -12512,19 +12520,19 @@
         <v>51</v>
       </c>
       <c r="D85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E85" t="s">
         <v>65</v>
       </c>
       <c r="F85" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G85" t="s">
         <v>49</v>
       </c>
       <c r="H85" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I85" t="n">
         <v>2271.000331</v>
@@ -12634,7 +12642,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B86" t="s">
         <v>44</v>
@@ -12643,19 +12651,19 @@
         <v>45</v>
       </c>
       <c r="D86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E86" t="s">
         <v>65</v>
       </c>
       <c r="F86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G86" t="s">
         <v>49</v>
       </c>
       <c r="H86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I86" t="n">
         <v>841.388863</v>
@@ -12765,7 +12773,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B87" t="s">
         <v>44</v>
@@ -12774,19 +12782,19 @@
         <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E87" t="s">
         <v>65</v>
       </c>
       <c r="F87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G87" t="s">
         <v>49</v>
       </c>
       <c r="H87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I87" t="n">
         <v>981.8355892</v>
@@ -12896,7 +12904,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B88" t="s">
         <v>54</v>
@@ -12905,19 +12913,19 @@
         <v>45</v>
       </c>
       <c r="D88" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E88" t="s">
         <v>65</v>
       </c>
       <c r="F88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G88" t="s">
         <v>49</v>
       </c>
       <c r="H88" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I88" t="n">
         <v>1001.79036</v>
@@ -13027,7 +13035,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B89" t="s">
         <v>54</v>
@@ -13036,19 +13044,19 @@
         <v>51</v>
       </c>
       <c r="D89" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E89" t="s">
         <v>65</v>
       </c>
       <c r="F89" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G89" t="s">
         <v>49</v>
       </c>
       <c r="H89" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I89" t="n">
         <v>1388.342892</v>
@@ -13158,7 +13166,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B90" t="s">
         <v>59</v>
@@ -13167,19 +13175,19 @@
         <v>45</v>
       </c>
       <c r="D90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E90" t="s">
         <v>65</v>
       </c>
       <c r="F90" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G90" t="s">
         <v>49</v>
       </c>
       <c r="H90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I90" t="n">
         <v>1759.069278</v>
@@ -13289,7 +13297,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B91" t="s">
         <v>59</v>
@@ -13298,19 +13306,19 @@
         <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E91" t="s">
         <v>65</v>
       </c>
       <c r="F91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G91" t="s">
         <v>49</v>
       </c>
       <c r="H91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I91" t="n">
         <v>1850.720121</v>
@@ -13420,7 +13428,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B92" t="s">
         <v>44</v>
@@ -13429,129 +13437,129 @@
         <v>45</v>
       </c>
       <c r="D92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E92" t="s">
         <v>105</v>
       </c>
       <c r="F92" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G92" t="s">
         <v>49</v>
       </c>
       <c r="H92" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I92" t="n">
-        <v>3045.054098</v>
+        <v>1215.878534</v>
       </c>
       <c r="J92" t="n">
-        <v>0.346139485</v>
+        <v>2.240491155</v>
       </c>
       <c r="K92" t="n">
-        <v>7.217674467</v>
+        <v>10.25993069</v>
       </c>
       <c r="L92" t="n">
-        <v>14569.67022</v>
+        <v>6877.091985</v>
       </c>
       <c r="M92" t="n">
-        <v>11540.67568</v>
+        <v>2818.203696</v>
       </c>
       <c r="N92" t="n">
-        <v>26110.3459</v>
+        <v>9695.295681</v>
       </c>
       <c r="O92" t="n">
-        <v>2079.884637</v>
+        <v>782.8817791</v>
       </c>
       <c r="P92" t="n">
-        <v>0.186842945</v>
+        <v>0.521369021</v>
       </c>
       <c r="Q92" t="n">
-        <v>2676.564031</v>
+        <v>1144.734068</v>
       </c>
       <c r="R92" t="n">
-        <v>7434.002048</v>
+        <v>1345.572952</v>
       </c>
       <c r="S92" t="n">
-        <v>18.07760693</v>
+        <v>9.700598985</v>
       </c>
       <c r="T92" t="n">
-        <v>0.313745903</v>
+        <v>0.349294662</v>
       </c>
       <c r="U92" t="n">
-        <v>140.7471312</v>
+        <v>176.2613694</v>
       </c>
       <c r="V92" t="n">
-        <v>0.494581602</v>
+        <v>0.352878586</v>
       </c>
       <c r="W92" t="n">
-        <v>5.864006548</v>
+        <v>5.182909313</v>
       </c>
       <c r="X92" t="n">
-        <v>0.286138315</v>
+        <v>0.172242231</v>
       </c>
       <c r="Y92" t="n">
-        <v>2.96265688</v>
+        <v>1.316982144</v>
       </c>
       <c r="Z92" t="n">
-        <v>0.286138315</v>
+        <v>0.172242231</v>
       </c>
       <c r="AA92" t="n">
-        <v>1.877060548</v>
+        <v>0.644705031</v>
       </c>
       <c r="AB92" t="n">
-        <v>2.538356836</v>
+        <v>1.231212958</v>
       </c>
       <c r="AC92" t="n">
-        <v>0.424300043</v>
+        <v>0.085769186</v>
       </c>
       <c r="AD92" t="n">
-        <v>13244.19788</v>
+        <v>4320.301002</v>
       </c>
       <c r="AE92" t="n">
-        <v>1732.721391</v>
+        <v>1863.887481</v>
       </c>
       <c r="AF92" t="n">
-        <v>2780.54149</v>
+        <v>3651.956969</v>
       </c>
       <c r="AG92" t="n">
-        <v>31.37459033</v>
+        <v>34.92946623</v>
       </c>
       <c r="AH92" t="n">
-        <v>0.00313043</v>
+        <v>179.9951181</v>
       </c>
       <c r="AI92" t="n">
-        <v>90.00649243</v>
+        <v>144.7283342</v>
       </c>
       <c r="AJ92" t="n">
-        <v>30.55975297</v>
+        <v>151.9157848</v>
       </c>
       <c r="AK92" t="n">
-        <v>16.02408209</v>
+        <v>29.66718354</v>
       </c>
       <c r="AL92" t="n">
-        <v>0.003349082</v>
+        <v>0.00435762</v>
       </c>
       <c r="AM92" t="n">
-        <v>0.018743304</v>
+        <v>0.019454755</v>
       </c>
       <c r="AN92" t="n">
-        <v>7.908695299</v>
+        <v>8.10025448</v>
       </c>
       <c r="AO92" t="n">
-        <v>71.75152389</v>
+        <v>11.85709658</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.844000255</v>
+        <v>0.288134026</v>
       </c>
       <c r="AQ92" t="n">
-        <v>12.79952727</v>
+        <v>1.731670121</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B93" t="s">
         <v>44</v>
@@ -13560,129 +13568,129 @@
         <v>51</v>
       </c>
       <c r="D93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E93" t="s">
         <v>105</v>
       </c>
       <c r="F93" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G93" t="s">
         <v>49</v>
       </c>
       <c r="H93" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I93" t="n">
-        <v>1240.796163</v>
+        <v>1183.019905</v>
       </c>
       <c r="J93" t="n">
-        <v>2.363390684</v>
+        <v>2.44201935</v>
       </c>
       <c r="K93" t="n">
-        <v>10.65830707</v>
+        <v>11.45731605</v>
       </c>
       <c r="L93" t="n">
-        <v>7772.566235</v>
+        <v>7663.580013</v>
       </c>
       <c r="M93" t="n">
-        <v>2406.253169</v>
+        <v>2014.913604</v>
       </c>
       <c r="N93" t="n">
-        <v>10178.8194</v>
+        <v>9678.493617</v>
       </c>
       <c r="O93" t="n">
-        <v>839.6405576</v>
+        <v>786.9395298</v>
       </c>
       <c r="P93" t="n">
-        <v>0.283065676</v>
+        <v>0.283429801</v>
       </c>
       <c r="Q93" t="n">
-        <v>1418.687403</v>
+        <v>1276.977699</v>
       </c>
       <c r="R93" t="n">
-        <v>1034.115438</v>
+        <v>1075.449734</v>
       </c>
       <c r="S93" t="n">
-        <v>12.98816208</v>
+        <v>10.75654307</v>
       </c>
       <c r="T93" t="n">
-        <v>0.362538377</v>
+        <v>0.389281477</v>
       </c>
       <c r="U93" t="n">
-        <v>175.507689</v>
+        <v>170.7568523</v>
       </c>
       <c r="V93" t="n">
-        <v>0.396505817</v>
+        <v>0.398815584</v>
       </c>
       <c r="W93" t="n">
-        <v>6.540755666</v>
+        <v>6.596537441</v>
       </c>
       <c r="X93" t="n">
-        <v>0.152695467</v>
+        <v>0.15091906</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.571378453</v>
+        <v>1.427882542</v>
       </c>
       <c r="Z93" t="n">
-        <v>0.152695467</v>
+        <v>0.15091906</v>
       </c>
       <c r="AA93" t="n">
-        <v>0.679618631</v>
+        <v>0.65760861</v>
       </c>
       <c r="AB93" t="n">
-        <v>1.511994722</v>
+        <v>1.363975342</v>
       </c>
       <c r="AC93" t="n">
-        <v>0.059383731</v>
+        <v>0.0639072</v>
       </c>
       <c r="AD93" t="n">
-        <v>4301.902889</v>
+        <v>4258.52998</v>
       </c>
       <c r="AE93" t="n">
-        <v>2142.760083</v>
+        <v>1987.611896</v>
       </c>
       <c r="AF93" t="n">
-        <v>3371.873087</v>
+        <v>3427.101065</v>
       </c>
       <c r="AG93" t="n">
-        <v>36.25383772</v>
+        <v>38.92814769</v>
       </c>
       <c r="AH93" t="n">
-        <v>179.9792028</v>
+        <v>179.9940136</v>
       </c>
       <c r="AI93" t="n">
-        <v>89.98486637</v>
+        <v>144.7324407</v>
       </c>
       <c r="AJ93" t="n">
-        <v>130.5905055</v>
+        <v>151.8925719</v>
       </c>
       <c r="AK93" t="n">
-        <v>31.20613831</v>
+        <v>36.57772677</v>
       </c>
       <c r="AL93" t="n">
-        <v>0.004379441</v>
+        <v>0.00305807</v>
       </c>
       <c r="AM93" t="n">
-        <v>0.01909727</v>
+        <v>0.018895252</v>
       </c>
       <c r="AN93" t="n">
-        <v>12.65654329</v>
+        <v>12.30475811</v>
       </c>
       <c r="AO93" t="n">
-        <v>8.423693048</v>
+        <v>6.410980382</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.55949704</v>
+        <v>0.386585088</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.039052153</v>
+        <v>1.007036126</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B94" t="s">
         <v>54</v>
@@ -13691,129 +13699,129 @@
         <v>45</v>
       </c>
       <c r="D94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E94" t="s">
         <v>105</v>
       </c>
       <c r="F94" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G94" t="s">
         <v>49</v>
       </c>
       <c r="H94" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I94" t="n">
-        <v>2692.964229</v>
+        <v>763.6790313</v>
       </c>
       <c r="J94" t="n">
-        <v>4.528072471</v>
+        <v>2.244011842</v>
       </c>
       <c r="K94" t="n">
-        <v>44.84045428</v>
+        <v>10.63142641</v>
       </c>
       <c r="L94" t="n">
-        <v>27126.68346</v>
+        <v>4879.393521</v>
       </c>
       <c r="M94" t="n">
-        <v>8068.715133</v>
+        <v>1058.301584</v>
       </c>
       <c r="N94" t="n">
-        <v>35195.39859</v>
+        <v>5937.695104</v>
       </c>
       <c r="O94" t="n">
-        <v>1378.289817</v>
+        <v>533.1558796</v>
       </c>
       <c r="P94" t="n">
-        <v>0.17166469</v>
+        <v>0.464257661</v>
       </c>
       <c r="Q94" t="n">
-        <v>1737.107824</v>
+        <v>858.6360879</v>
       </c>
       <c r="R94" t="n">
-        <v>5241.079734</v>
+        <v>674.5374594</v>
       </c>
       <c r="S94" t="n">
-        <v>15.56882263</v>
+        <v>11.0154005</v>
       </c>
       <c r="T94" t="n">
-        <v>0.295452823</v>
+        <v>0.502745228</v>
       </c>
       <c r="U94" t="n">
-        <v>93.74451512</v>
+        <v>172.7480169</v>
       </c>
       <c r="V94" t="n">
-        <v>0.43089143</v>
+        <v>0.266621923</v>
       </c>
       <c r="W94" t="n">
-        <v>3.426504282</v>
+        <v>3.248066286</v>
       </c>
       <c r="X94" t="n">
-        <v>0.236917256</v>
+        <v>0.08826198</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.974036052</v>
+        <v>0.946887513</v>
       </c>
       <c r="Z94" t="n">
-        <v>0.236917256</v>
+        <v>0.08826198</v>
       </c>
       <c r="AA94" t="n">
-        <v>1.213269364</v>
+        <v>0.505087478</v>
       </c>
       <c r="AB94" t="n">
-        <v>1.6637724</v>
+        <v>0.915880629</v>
       </c>
       <c r="AC94" t="n">
-        <v>0.310263652</v>
+        <v>0.031006884</v>
       </c>
       <c r="AD94" t="n">
-        <v>12654.64137</v>
+        <v>2651.878864</v>
       </c>
       <c r="AE94" t="n">
-        <v>1114.471763</v>
+        <v>1373.053543</v>
       </c>
       <c r="AF94" t="n">
-        <v>2873.135777</v>
+        <v>3680.952361</v>
       </c>
       <c r="AG94" t="n">
-        <v>29.54528225</v>
+        <v>50.27452277</v>
       </c>
       <c r="AH94" t="n">
-        <v>132.2351458</v>
+        <v>89.98971897</v>
       </c>
       <c r="AI94" t="n">
-        <v>89.99838472</v>
+        <v>179.9951987</v>
       </c>
       <c r="AJ94" t="n">
-        <v>47.73974353</v>
+        <v>135.6721858</v>
       </c>
       <c r="AK94" t="n">
-        <v>23.90738704</v>
+        <v>49.27801248</v>
       </c>
       <c r="AL94" t="n">
-        <v>0.005959313</v>
+        <v>0.00151565</v>
       </c>
       <c r="AM94" t="n">
-        <v>0.020058043</v>
+        <v>0.01804395</v>
       </c>
       <c r="AN94" t="n">
-        <v>3.983306596</v>
+        <v>5.510322443</v>
       </c>
       <c r="AO94" t="n">
-        <v>42.89822709</v>
+        <v>3.798778806</v>
       </c>
       <c r="AP94" t="n">
-        <v>3.543518424</v>
+        <v>0.363447367</v>
       </c>
       <c r="AQ94" t="n">
-        <v>6.577745802</v>
+        <v>0.82075943</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B95" t="s">
         <v>54</v>
@@ -13822,129 +13830,129 @@
         <v>51</v>
       </c>
       <c r="D95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E95" t="s">
         <v>105</v>
       </c>
       <c r="F95" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G95" t="s">
         <v>49</v>
       </c>
       <c r="H95" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I95" t="n">
-        <v>966.097292</v>
+        <v>893.2278964</v>
       </c>
       <c r="J95" t="n">
-        <v>1.993418673</v>
+        <v>1.97671976</v>
       </c>
       <c r="K95" t="n">
-        <v>8.579964703</v>
+        <v>8.295480906</v>
       </c>
       <c r="L95" t="n">
-        <v>5697.305145</v>
+        <v>5025.630494</v>
       </c>
       <c r="M95" t="n">
-        <v>1599.122593</v>
+        <v>1309.432424</v>
       </c>
       <c r="N95" t="n">
-        <v>7296.427739</v>
+        <v>6335.062918</v>
       </c>
       <c r="O95" t="n">
-        <v>689.3766594</v>
+        <v>638.7945207</v>
       </c>
       <c r="P95" t="n">
-        <v>0.399203048</v>
+        <v>0.584893609</v>
       </c>
       <c r="Q95" t="n">
-        <v>1155.753637</v>
+        <v>1092.395855</v>
       </c>
       <c r="R95" t="n">
-        <v>890.6550255</v>
+        <v>778.0082947</v>
       </c>
       <c r="S95" t="n">
-        <v>9.749979955</v>
+        <v>10.34758418</v>
       </c>
       <c r="T95" t="n">
-        <v>0.485284159</v>
+        <v>0.523994567</v>
       </c>
       <c r="U95" t="n">
-        <v>93.99345173</v>
+        <v>94.23479602</v>
       </c>
       <c r="V95" t="n">
-        <v>0.3550628</v>
+        <v>0.335441999</v>
       </c>
       <c r="W95" t="n">
-        <v>5.503133383</v>
+        <v>4.951723396</v>
       </c>
       <c r="X95" t="n">
-        <v>0.108065216</v>
+        <v>0.098324956</v>
       </c>
       <c r="Y95" t="n">
-        <v>1.263822622</v>
+        <v>1.190711291</v>
       </c>
       <c r="Z95" t="n">
-        <v>0.108065216</v>
+        <v>0.098324956</v>
       </c>
       <c r="AA95" t="n">
-        <v>0.614696924</v>
+        <v>0.590865546</v>
       </c>
       <c r="AB95" t="n">
-        <v>1.218839277</v>
+        <v>1.154644478</v>
       </c>
       <c r="AC95" t="n">
-        <v>0.044983345</v>
+        <v>0.036066812</v>
       </c>
       <c r="AD95" t="n">
-        <v>3715.942369</v>
+        <v>3154.657456</v>
       </c>
       <c r="AE95" t="n">
-        <v>1941.43239</v>
+        <v>1786.123574</v>
       </c>
       <c r="AF95" t="n">
-        <v>3327.682046</v>
+        <v>3410.737003</v>
       </c>
       <c r="AG95" t="n">
-        <v>48.52841594</v>
+        <v>52.39945665</v>
       </c>
       <c r="AH95" t="n">
-        <v>90.03596749</v>
+        <v>135.7037561</v>
       </c>
       <c r="AI95" t="n">
-        <v>132.2790434</v>
+        <v>90.01168511</v>
       </c>
       <c r="AJ95" t="n">
-        <v>47.72951004</v>
+        <v>44.29657541</v>
       </c>
       <c r="AK95" t="n">
-        <v>49.07779</v>
+        <v>54.56172226</v>
       </c>
       <c r="AL95" t="n">
-        <v>0.001556076</v>
+        <v>0.001445835</v>
       </c>
       <c r="AM95" t="n">
-        <v>0.017980065</v>
+        <v>0.017869849</v>
       </c>
       <c r="AN95" t="n">
-        <v>10.17516984</v>
+        <v>9.190205969</v>
       </c>
       <c r="AO95" t="n">
-        <v>6.702534053</v>
+        <v>7.087382389</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.220910207</v>
+        <v>0.311757852</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.694143299</v>
+        <v>0.674779436</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B96" t="s">
         <v>59</v>
@@ -13953,129 +13961,129 @@
         <v>45</v>
       </c>
       <c r="D96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E96" t="s">
         <v>105</v>
       </c>
       <c r="F96" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G96" t="s">
         <v>49</v>
       </c>
       <c r="H96" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I96" t="n">
-        <v>1016.894293</v>
+        <v>1274.119215</v>
       </c>
       <c r="J96" t="n">
-        <v>2.67499474</v>
+        <v>2.115240734</v>
       </c>
       <c r="K96" t="n">
-        <v>14.55365822</v>
+        <v>8.42385541</v>
       </c>
       <c r="L96" t="n">
-        <v>7929.12518</v>
+        <v>6799.975617</v>
       </c>
       <c r="M96" t="n">
-        <v>1850.448684</v>
+        <v>1556.188786</v>
       </c>
       <c r="N96" t="n">
-        <v>9779.573863</v>
+        <v>8356.164403</v>
       </c>
       <c r="O96" t="n">
-        <v>653.6125461</v>
+        <v>894.1486057</v>
       </c>
       <c r="P96" t="n">
-        <v>0.125098789</v>
+        <v>0.479919708</v>
       </c>
       <c r="Q96" t="n">
-        <v>943.2861681</v>
+        <v>1575.992796</v>
       </c>
       <c r="R96" t="n">
-        <v>1100.558677</v>
+        <v>909.6932757</v>
       </c>
       <c r="S96" t="n">
-        <v>12.75741534</v>
+        <v>9.685002587</v>
       </c>
       <c r="T96" t="n">
-        <v>0.480083604</v>
+        <v>0.447547704</v>
       </c>
       <c r="U96" t="n">
-        <v>156.0002912</v>
+        <v>133.7473465</v>
       </c>
       <c r="V96" t="n">
-        <v>0.250963492</v>
+        <v>0.40453241</v>
       </c>
       <c r="W96" t="n">
-        <v>2.638016281</v>
+        <v>6.828757734</v>
       </c>
       <c r="X96" t="n">
-        <v>0.13388217</v>
+        <v>0.148214547</v>
       </c>
       <c r="Y96" t="n">
-        <v>1.077146006</v>
+        <v>1.724189203</v>
       </c>
       <c r="Z96" t="n">
-        <v>0.13388217</v>
+        <v>0.148214547</v>
       </c>
       <c r="AA96" t="n">
-        <v>0.590442737</v>
+        <v>0.793234424</v>
       </c>
       <c r="AB96" t="n">
-        <v>1.014157602</v>
+        <v>1.682355266</v>
       </c>
       <c r="AC96" t="n">
-        <v>0.062988404</v>
+        <v>0.041833937</v>
       </c>
       <c r="AD96" t="n">
-        <v>3829.768691</v>
+        <v>5236.496522</v>
       </c>
       <c r="AE96" t="n">
-        <v>1402.183639</v>
+        <v>2388.849114</v>
       </c>
       <c r="AF96" t="n">
-        <v>3205.01082</v>
+        <v>3402.321918</v>
       </c>
       <c r="AG96" t="n">
-        <v>48.00836036</v>
+        <v>44.75477043</v>
       </c>
       <c r="AH96" t="n">
-        <v>130.5040367</v>
+        <v>130.9660911</v>
       </c>
       <c r="AI96" t="n">
-        <v>0.008364364</v>
+        <v>89.99539369</v>
       </c>
       <c r="AJ96" t="n">
-        <v>158.7432185</v>
+        <v>113.454452</v>
       </c>
       <c r="AK96" t="n">
-        <v>43.01750709</v>
+        <v>52.26521207</v>
       </c>
       <c r="AL96" t="n">
-        <v>0.004675377</v>
+        <v>0.002379436</v>
       </c>
       <c r="AM96" t="n">
-        <v>0.017875005</v>
+        <v>0.016670518</v>
       </c>
       <c r="AN96" t="n">
-        <v>4.079747802</v>
+        <v>11.5636309</v>
       </c>
       <c r="AO96" t="n">
-        <v>29.91293999</v>
+        <v>14.77483067</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.722581886</v>
+        <v>0.568021428</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2.779045701</v>
+        <v>0.972013969</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B97" t="s">
         <v>59</v>
@@ -14084,129 +14092,129 @@
         <v>51</v>
       </c>
       <c r="D97" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E97" t="s">
         <v>105</v>
       </c>
       <c r="F97" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G97" t="s">
         <v>49</v>
       </c>
       <c r="H97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I97" t="n">
-        <v>1223.236991</v>
+        <v>1269.801221</v>
       </c>
       <c r="J97" t="n">
-        <v>1.973590665</v>
+        <v>2.054156177</v>
       </c>
       <c r="K97" t="n">
-        <v>7.698257388</v>
+        <v>7.973067375</v>
       </c>
       <c r="L97" t="n">
-        <v>6657.0738</v>
+        <v>6724.34678</v>
       </c>
       <c r="M97" t="n">
-        <v>1617.182742</v>
+        <v>1569.082032</v>
       </c>
       <c r="N97" t="n">
-        <v>8274.256542</v>
+        <v>8293.428812</v>
       </c>
       <c r="O97" t="n">
-        <v>871.8602921</v>
+        <v>894.2889012</v>
       </c>
       <c r="P97" t="n">
-        <v>0.342334047</v>
+        <v>0.389676974</v>
       </c>
       <c r="Q97" t="n">
-        <v>1593.415582</v>
+        <v>1611.462109</v>
       </c>
       <c r="R97" t="n">
-        <v>932.4229615</v>
+        <v>954.1370576</v>
       </c>
       <c r="S97" t="n">
-        <v>10.06504557</v>
+        <v>10.00354918</v>
       </c>
       <c r="T97" t="n">
-        <v>0.441283232</v>
+        <v>0.346360239</v>
       </c>
       <c r="U97" t="n">
-        <v>128.237826</v>
+        <v>154.4889499</v>
       </c>
       <c r="V97" t="n">
-        <v>0.402403515</v>
+        <v>0.423919211</v>
       </c>
       <c r="W97" t="n">
-        <v>6.643099155</v>
+        <v>7.20426418</v>
       </c>
       <c r="X97" t="n">
-        <v>0.133177899</v>
+        <v>0.145244883</v>
       </c>
       <c r="Y97" t="n">
-        <v>1.726598028</v>
+        <v>1.756720329</v>
       </c>
       <c r="Z97" t="n">
-        <v>0.133177899</v>
+        <v>0.145244883</v>
       </c>
       <c r="AA97" t="n">
-        <v>0.787880457</v>
+        <v>0.779473109</v>
       </c>
       <c r="AB97" t="n">
-        <v>1.680580438</v>
+        <v>1.707495519</v>
       </c>
       <c r="AC97" t="n">
-        <v>0.04601759</v>
+        <v>0.049224809</v>
       </c>
       <c r="AD97" t="n">
-        <v>4717.811051</v>
+        <v>4390.150132</v>
       </c>
       <c r="AE97" t="n">
-        <v>2468.017133</v>
+        <v>2522.073728</v>
       </c>
       <c r="AF97" t="n">
-        <v>3268.301785</v>
+        <v>3239.669059</v>
       </c>
       <c r="AG97" t="n">
-        <v>44.12832324</v>
+        <v>34.63602393</v>
       </c>
       <c r="AH97" t="n">
-        <v>130.5078486</v>
+        <v>130.9666964</v>
       </c>
       <c r="AI97" t="n">
-        <v>49.4871243</v>
+        <v>106.2375714</v>
       </c>
       <c r="AJ97" t="n">
-        <v>90.01415207</v>
+        <v>90.0005539</v>
       </c>
       <c r="AK97" t="n">
-        <v>49.2079896</v>
+        <v>46.35719926</v>
       </c>
       <c r="AL97" t="n">
-        <v>0.004021205</v>
+        <v>0.003643819</v>
       </c>
       <c r="AM97" t="n">
-        <v>0.017815585</v>
+        <v>0.017794333</v>
       </c>
       <c r="AN97" t="n">
-        <v>11.86513559</v>
+        <v>12.91341394</v>
       </c>
       <c r="AO97" t="n">
-        <v>11.88882578</v>
+        <v>8.042486796</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.51772905</v>
+        <v>0.519131148</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.107999482</v>
+        <v>1.082396884</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B98" t="s">
         <v>44</v>
@@ -14215,19 +14223,19 @@
         <v>45</v>
       </c>
       <c r="D98" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E98" t="s">
         <v>47</v>
       </c>
       <c r="F98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G98" t="s">
         <v>49</v>
       </c>
       <c r="H98" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I98" t="n">
         <v>2296.547179</v>
@@ -14331,7 +14339,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B99" t="s">
         <v>44</v>
@@ -14340,19 +14348,19 @@
         <v>51</v>
       </c>
       <c r="D99" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E99" t="s">
         <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G99" t="s">
         <v>49</v>
       </c>
       <c r="H99" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I99" t="n">
         <v>2988.172869</v>
@@ -14462,7 +14470,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B100" t="s">
         <v>54</v>
@@ -14471,19 +14479,19 @@
         <v>45</v>
       </c>
       <c r="D100" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E100" t="s">
         <v>47</v>
       </c>
       <c r="F100" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G100" t="s">
         <v>49</v>
       </c>
       <c r="H100" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I100" t="n">
         <v>3799.956631</v>
@@ -14593,7 +14601,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B101" t="s">
         <v>54</v>
@@ -14602,19 +14610,19 @@
         <v>51</v>
       </c>
       <c r="D101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E101" t="s">
         <v>47</v>
       </c>
       <c r="F101" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G101" t="s">
         <v>49</v>
       </c>
       <c r="H101" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I101" t="n">
         <v>2820.54904</v>
@@ -14724,7 +14732,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B102" t="s">
         <v>59</v>
@@ -14733,19 +14741,19 @@
         <v>45</v>
       </c>
       <c r="D102" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E102" t="s">
         <v>47</v>
       </c>
       <c r="F102" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G102" t="s">
         <v>49</v>
       </c>
       <c r="H102" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I102" t="n">
         <v>1717.670064</v>
@@ -14855,7 +14863,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B103" t="s">
         <v>59</v>
@@ -14864,19 +14872,19 @@
         <v>51</v>
       </c>
       <c r="D103" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E103" t="s">
         <v>47</v>
       </c>
       <c r="F103" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G103" t="s">
         <v>49</v>
       </c>
       <c r="H103" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I103" t="n">
         <v>1651.092491</v>
@@ -14986,7 +14994,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B104" t="s">
         <v>44</v>
@@ -14995,19 +15003,19 @@
         <v>45</v>
       </c>
       <c r="D104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E104" t="s">
         <v>47</v>
       </c>
       <c r="F104" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G104" t="s">
         <v>49</v>
       </c>
       <c r="H104" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I104" t="n">
         <v>1127.240802</v>
@@ -15117,7 +15125,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B105" t="s">
         <v>44</v>
@@ -15126,19 +15134,19 @@
         <v>51</v>
       </c>
       <c r="D105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E105" t="s">
         <v>47</v>
       </c>
       <c r="F105" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G105" t="s">
         <v>49</v>
       </c>
       <c r="H105" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I105" t="n">
         <v>1396.305297</v>
@@ -15248,7 +15256,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B106" t="s">
         <v>54</v>
@@ -15257,19 +15265,19 @@
         <v>45</v>
       </c>
       <c r="D106" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E106" t="s">
         <v>47</v>
       </c>
       <c r="F106" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G106" t="s">
         <v>49</v>
       </c>
       <c r="H106" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I106" t="n">
         <v>1768.339324</v>
@@ -15379,7 +15387,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B107" t="s">
         <v>54</v>
@@ -15388,19 +15396,19 @@
         <v>51</v>
       </c>
       <c r="D107" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E107" t="s">
         <v>47</v>
       </c>
       <c r="F107" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G107" t="s">
         <v>49</v>
       </c>
       <c r="H107" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I107" t="n">
         <v>1017.307911</v>
@@ -15510,7 +15518,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B108" t="s">
         <v>59</v>
@@ -15519,19 +15527,19 @@
         <v>45</v>
       </c>
       <c r="D108" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E108" t="s">
         <v>47</v>
       </c>
       <c r="F108" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G108" t="s">
         <v>49</v>
       </c>
       <c r="H108" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I108" t="n">
         <v>2651.215244</v>
@@ -15641,7 +15649,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B109" t="s">
         <v>59</v>
@@ -15650,19 +15658,19 @@
         <v>51</v>
       </c>
       <c r="D109" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E109" t="s">
         <v>47</v>
       </c>
       <c r="F109" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G109" t="s">
         <v>49</v>
       </c>
       <c r="H109" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I109" t="n">
         <v>4050.933422</v>
@@ -15772,7 +15780,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B110" t="s">
         <v>44</v>
@@ -15781,19 +15789,19 @@
         <v>45</v>
       </c>
       <c r="D110" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E110" t="s">
         <v>132</v>
       </c>
       <c r="F110" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G110" t="s">
         <v>49</v>
       </c>
       <c r="H110" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I110" t="n">
         <v>1305.201683</v>
@@ -15903,7 +15911,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B111" t="s">
         <v>44</v>
@@ -15912,19 +15920,19 @@
         <v>51</v>
       </c>
       <c r="D111" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E111" t="s">
         <v>132</v>
       </c>
       <c r="F111" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G111" t="s">
         <v>49</v>
       </c>
       <c r="H111" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I111" t="n">
         <v>2973.767199</v>
@@ -16034,7 +16042,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B112" t="s">
         <v>54</v>
@@ -16043,19 +16051,19 @@
         <v>45</v>
       </c>
       <c r="D112" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E112" t="s">
         <v>132</v>
       </c>
       <c r="F112" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G112" t="s">
         <v>49</v>
       </c>
       <c r="H112" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I112" t="n">
         <v>1319.374694</v>
@@ -16165,7 +16173,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B113" t="s">
         <v>54</v>
@@ -16174,19 +16182,19 @@
         <v>51</v>
       </c>
       <c r="D113" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E113" t="s">
         <v>132</v>
       </c>
       <c r="F113" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G113" t="s">
         <v>49</v>
       </c>
       <c r="H113" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I113" t="n">
         <v>3799.832597</v>
@@ -16292,7 +16300,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B114" t="s">
         <v>59</v>
@@ -16301,19 +16309,19 @@
         <v>45</v>
       </c>
       <c r="D114" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E114" t="s">
         <v>132</v>
       </c>
       <c r="F114" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G114" t="s">
         <v>49</v>
       </c>
       <c r="H114" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I114" t="n">
         <v>7083.04559</v>
@@ -16423,7 +16431,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B115" t="s">
         <v>59</v>
@@ -16432,19 +16440,19 @@
         <v>51</v>
       </c>
       <c r="D115" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E115" t="s">
         <v>132</v>
       </c>
       <c r="F115" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G115" t="s">
         <v>49</v>
       </c>
       <c r="H115" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I115" t="n">
         <v>2618.830497</v>
@@ -16550,793 +16558,791 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B116" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="C116" t="s">
         <v>45</v>
       </c>
       <c r="D116" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E116" t="s">
         <v>105</v>
       </c>
       <c r="F116" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G116" t="s">
         <v>49</v>
       </c>
       <c r="H116" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I116" t="n">
-        <v>1866.933232</v>
+        <v>2559.250867</v>
       </c>
       <c r="J116" t="n">
-        <v>1.677453915</v>
+        <v>1.186332176</v>
       </c>
       <c r="K116" t="n">
-        <v>6.370213606</v>
+        <v>4.699299302</v>
       </c>
       <c r="L116" t="n">
-        <v>4327.684728</v>
+        <v>10873.36685</v>
       </c>
       <c r="M116" t="n">
-        <v>2148.089247</v>
+        <v>5414.553792</v>
       </c>
       <c r="N116" t="n">
-        <v>6475.773975</v>
+        <v>16287.92064</v>
       </c>
       <c r="O116" t="n">
-        <v>679.3645862</v>
+        <v>1919.992004</v>
       </c>
       <c r="P116" t="n">
-        <v>1.39106627</v>
+        <v>0.305374476</v>
       </c>
       <c r="Q116" t="n">
-        <v>1259.899447</v>
+        <v>3555.108383</v>
       </c>
       <c r="R116" t="n">
-        <v>1067.113775</v>
+        <v>3154.695888</v>
       </c>
       <c r="S116" t="n">
-        <v>13.76575869</v>
+        <v>15.52904114</v>
       </c>
       <c r="T116" t="n">
-        <v>0.682373725</v>
+        <v>0.405471188</v>
       </c>
       <c r="U116" t="n">
-        <v>141.0001861</v>
+        <v>129.5017949</v>
       </c>
       <c r="V116" t="n">
-        <v>0.269706354</v>
+        <v>0.63282257</v>
       </c>
       <c r="W116" t="n">
-        <v>3.154375779</v>
+        <v>15.32780434</v>
       </c>
       <c r="X116" t="n">
-        <v>0.109721607</v>
+        <v>0.217333248</v>
       </c>
       <c r="Y116" t="n">
-        <v>1.36962929</v>
+        <v>3.772457946</v>
       </c>
       <c r="Z116" t="n">
-        <v>0.109721607</v>
+        <v>0.217333248</v>
       </c>
       <c r="AA116" t="n">
-        <v>0.601707922</v>
+        <v>1.913382412</v>
       </c>
       <c r="AB116" t="n">
-        <v>1.307483139</v>
+        <v>3.597470363</v>
       </c>
       <c r="AC116" t="n">
-        <v>0.062146152</v>
+        <v>0.174987583</v>
       </c>
       <c r="AD116" t="n">
-        <v>4334.284658</v>
+        <v>8562.148752</v>
       </c>
       <c r="AE116" t="n">
-        <v>1879.754094</v>
+        <v>3832.132813</v>
       </c>
       <c r="AF116" t="n">
-        <v>3422.388121</v>
+        <v>2795.414327</v>
       </c>
       <c r="AG116" t="n">
-        <v>68.23737246</v>
+        <v>40.54711877</v>
       </c>
       <c r="AH116" t="n">
-        <v>135.0139748</v>
+        <v>89.99788706</v>
       </c>
       <c r="AI116" t="n">
-        <v>146.1534156</v>
+        <v>134.9897637</v>
       </c>
       <c r="AJ116" t="n">
-        <v>44.97877656</v>
+        <v>153.5069675</v>
       </c>
       <c r="AK116" t="n">
-        <v>70.29138147</v>
+        <v>67.51358419</v>
       </c>
       <c r="AL116" t="n">
-        <v>0.000539767</v>
+        <v>0.003212191</v>
       </c>
       <c r="AM116" t="n">
-        <v>0.017927638</v>
+        <v>0.017298451</v>
       </c>
       <c r="AN116" t="n">
-        <v>4.965007605</v>
+        <v>26.39998711</v>
       </c>
       <c r="AO116" t="n">
-        <v>14.02364584</v>
+        <v>22.98827132</v>
       </c>
       <c r="AP116" t="n">
-        <v>0.634133356</v>
+        <v>0.423640964</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.633864959</v>
+        <v>0.573820523</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B117" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="C117" t="s">
         <v>51</v>
       </c>
       <c r="D117" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E117" t="s">
         <v>105</v>
       </c>
       <c r="F117" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G117" t="s">
         <v>49</v>
       </c>
       <c r="H117" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I117" t="n">
-        <v>974.0097899</v>
+        <v>1840.87396</v>
       </c>
       <c r="J117" t="n">
-        <v>1.153267179</v>
+        <v>1.182282891</v>
       </c>
       <c r="K117" t="n">
-        <v>4.609430583</v>
+        <v>5.637925678</v>
       </c>
       <c r="L117" t="n">
-        <v>8297.123343</v>
+        <v>9778.555836</v>
       </c>
       <c r="M117" t="n">
-        <v>3687.298845</v>
+        <v>4005.718808</v>
       </c>
       <c r="N117" t="n">
-        <v>11984.42219</v>
+        <v>13784.27464</v>
       </c>
       <c r="O117" t="n">
-        <v>1438.767605</v>
+        <v>1404.46931</v>
       </c>
       <c r="P117" t="n">
-        <v>0.287690368</v>
+        <v>0.25652956</v>
       </c>
       <c r="Q117" t="n">
-        <v>2516.271035</v>
+        <v>2401.843684</v>
       </c>
       <c r="R117" t="n">
-        <v>2179.103518</v>
+        <v>2376.779529</v>
       </c>
       <c r="S117" t="n">
-        <v>17.53969283</v>
+        <v>13.14959373</v>
       </c>
       <c r="T117" t="n">
-        <v>0.852149087</v>
+        <v>0.852469377</v>
       </c>
       <c r="U117" t="n">
-        <v>86.50546858</v>
+        <v>93.76259846</v>
       </c>
       <c r="V117" t="n">
-        <v>0.513620895</v>
+        <v>0.540871635</v>
       </c>
       <c r="W117" t="n">
-        <v>11.03628831</v>
+        <v>11.90919491</v>
       </c>
       <c r="X117" t="n">
-        <v>0.154589098</v>
+        <v>0.144075575</v>
       </c>
       <c r="Y117" t="n">
-        <v>2.67084925</v>
+        <v>2.545926781</v>
       </c>
       <c r="Z117" t="n">
-        <v>0.154589098</v>
+        <v>0.144075575</v>
       </c>
       <c r="AA117" t="n">
-        <v>1.469960493</v>
+        <v>1.458097913</v>
       </c>
       <c r="AB117" t="n">
-        <v>2.560611778</v>
+        <v>2.421475605</v>
       </c>
       <c r="AC117" t="n">
-        <v>0.110237473</v>
+        <v>0.124451176</v>
       </c>
       <c r="AD117" t="n">
-        <v>6539.165096</v>
+        <v>6842.253173</v>
       </c>
       <c r="AE117" t="n">
-        <v>3283.398051</v>
+        <v>2949.108714</v>
       </c>
       <c r="AF117" t="n">
-        <v>2916.878054</v>
+        <v>2964.427276</v>
       </c>
       <c r="AG117" t="n">
-        <v>85.21490874</v>
+        <v>85.24693768</v>
       </c>
       <c r="AH117" t="n">
-        <v>89.99743125</v>
+        <v>89.99996308</v>
       </c>
       <c r="AI117" t="n">
-        <v>116.5127238</v>
+        <v>0.001808717</v>
       </c>
       <c r="AJ117" t="n">
-        <v>134.9959255</v>
+        <v>116.4305774</v>
       </c>
       <c r="AK117" t="n">
-        <v>88.05456822</v>
+        <v>82.84823249</v>
       </c>
       <c r="AL117" t="n">
-        <v>0.000776796</v>
+        <v>0.000473915</v>
       </c>
       <c r="AM117" t="n">
-        <v>0.017609831</v>
+        <v>0.017519725</v>
       </c>
       <c r="AN117" t="n">
-        <v>19.45248114</v>
+        <v>19.60471425</v>
       </c>
       <c r="AO117" t="n">
-        <v>7.48128879</v>
+        <v>9.091814284</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.130679007</v>
+        <v>0.124769988</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.352742939</v>
+        <v>0.341685601</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B118" t="s">
-        <v>54</v>
+        <v>306</v>
       </c>
       <c r="C118" t="s">
         <v>45</v>
       </c>
       <c r="D118" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E118" t="s">
         <v>105</v>
       </c>
       <c r="F118" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G118" t="s">
         <v>49</v>
       </c>
       <c r="H118" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I118" t="n">
-        <v>1811.296091</v>
+        <v>5367.575436</v>
       </c>
       <c r="J118" t="n">
-        <v>0.81721514</v>
+        <v>3.046339075</v>
       </c>
       <c r="K118" t="n">
-        <v>4.596637938</v>
+        <v>15.21082183</v>
       </c>
       <c r="L118" t="n">
-        <v>5780.876733</v>
+        <v>30696.8142</v>
       </c>
       <c r="M118" t="n">
-        <v>3897.694544</v>
+        <v>7735.801456</v>
       </c>
       <c r="N118" t="n">
-        <v>9678.571277</v>
+        <v>38432.61566</v>
       </c>
       <c r="O118" t="n">
-        <v>1052.250154</v>
+        <v>3270.061768</v>
       </c>
       <c r="P118" t="n">
-        <v>0.648152514</v>
+        <v>0.224188654</v>
       </c>
       <c r="Q118" t="n">
-        <v>1638.417024</v>
+        <v>4618.242503</v>
       </c>
       <c r="R118" t="n">
-        <v>2222.176718</v>
+        <v>4830.671092</v>
       </c>
       <c r="S118" t="n">
-        <v>17.27686308</v>
+        <v>23.23332446</v>
       </c>
       <c r="T118" t="n">
-        <v>0.497461887</v>
+        <v>0.939832982</v>
       </c>
       <c r="U118" t="n">
-        <v>3.747353311</v>
+        <v>58.74834227</v>
       </c>
       <c r="V118" t="n">
-        <v>0.279152994</v>
+        <v>0.962457864</v>
       </c>
       <c r="W118" t="n">
-        <v>3.395674107</v>
+        <v>21.02255515</v>
       </c>
       <c r="X118" t="n">
-        <v>0.126522279</v>
+        <v>0.744762557</v>
       </c>
       <c r="Y118" t="n">
-        <v>1.764945413</v>
+        <v>5.363018596</v>
       </c>
       <c r="Z118" t="n">
-        <v>0.126522279</v>
+        <v>0.744762557</v>
       </c>
       <c r="AA118" t="n">
-        <v>1.06731837</v>
+        <v>2.893219777</v>
       </c>
       <c r="AB118" t="n">
-        <v>1.641463066</v>
+        <v>5.106466107</v>
       </c>
       <c r="AC118" t="n">
-        <v>0.123482347</v>
+        <v>0.256552488</v>
       </c>
       <c r="AD118" t="n">
-        <v>5576.555403</v>
+        <v>14388.23698</v>
       </c>
       <c r="AE118" t="n">
-        <v>1911.548914</v>
+        <v>4506.818263</v>
       </c>
       <c r="AF118" t="n">
-        <v>3141.639468</v>
+        <v>3105.439234</v>
       </c>
       <c r="AG118" t="n">
-        <v>49.74618866</v>
+        <v>93.98329817</v>
       </c>
       <c r="AH118" t="n">
-        <v>0.005436597</v>
+        <v>45.00476806</v>
       </c>
       <c r="AI118" t="n">
-        <v>134.785999</v>
+        <v>63.52119962</v>
       </c>
       <c r="AJ118" t="n">
-        <v>90.00513521</v>
+        <v>56.23446002</v>
       </c>
       <c r="AK118" t="n">
-        <v>52.18031788</v>
+        <v>74.9748847</v>
       </c>
       <c r="AL118" t="n">
-        <v>0.002313741</v>
+        <v>0.001075006</v>
       </c>
       <c r="AM118" t="n">
-        <v>0.018656276</v>
+        <v>0.017599391</v>
       </c>
       <c r="AN118" t="n">
-        <v>4.66386891</v>
+        <v>30.30725333</v>
       </c>
       <c r="AO118" t="n">
-        <v>8.083894843</v>
+        <v>647.150606</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.078843821</v>
-      </c>
-      <c r="AQ118" t="n">
-        <v>1.938880797</v>
-      </c>
+        <v>-25.75255985</v>
+      </c>
+      <c r="AQ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B119" t="s">
-        <v>54</v>
+        <v>306</v>
       </c>
       <c r="C119" t="s">
         <v>51</v>
       </c>
       <c r="D119" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E119" t="s">
         <v>105</v>
       </c>
       <c r="F119" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G119" t="s">
         <v>49</v>
       </c>
       <c r="H119" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I119" t="n">
-        <v>1393.437437</v>
+        <v>2495.718971</v>
       </c>
       <c r="J119" t="n">
-        <v>0.932337648</v>
+        <v>1.331694996</v>
       </c>
       <c r="K119" t="n">
-        <v>4.146761118</v>
+        <v>5.57754672</v>
       </c>
       <c r="L119" t="n">
-        <v>8948.392646</v>
+        <v>12200.69614</v>
       </c>
       <c r="M119" t="n">
-        <v>3762.760074</v>
+        <v>5033.369561</v>
       </c>
       <c r="N119" t="n">
-        <v>12711.15272</v>
+        <v>17234.0657</v>
       </c>
       <c r="O119" t="n">
-        <v>1433.872273</v>
+        <v>1890.957996</v>
       </c>
       <c r="P119" t="n">
-        <v>0.208638638</v>
+        <v>0.196637878</v>
       </c>
       <c r="Q119" t="n">
-        <v>2522.246818</v>
+        <v>3175.127819</v>
       </c>
       <c r="R119" t="n">
-        <v>2284.337337</v>
+        <v>2859.719886</v>
       </c>
       <c r="S119" t="n">
-        <v>20.38475404</v>
+        <v>14.91287574</v>
       </c>
       <c r="T119" t="n">
-        <v>0.826649543</v>
+        <v>0.561594768</v>
       </c>
       <c r="U119" t="n">
-        <v>137.5042841</v>
+        <v>129.0036591</v>
       </c>
       <c r="V119" t="n">
-        <v>0.464234332</v>
+        <v>0.631546275</v>
       </c>
       <c r="W119" t="n">
-        <v>9.342584474</v>
+        <v>15.43005997</v>
       </c>
       <c r="X119" t="n">
-        <v>0.122076706</v>
+        <v>0.225765406</v>
       </c>
       <c r="Y119" t="n">
-        <v>2.644336347</v>
+        <v>3.400929752</v>
       </c>
       <c r="Z119" t="n">
-        <v>0.122076706</v>
+        <v>0.225765406</v>
       </c>
       <c r="AA119" t="n">
-        <v>1.505344415</v>
+        <v>1.897095356</v>
       </c>
       <c r="AB119" t="n">
-        <v>2.530034548</v>
+        <v>3.256485459</v>
       </c>
       <c r="AC119" t="n">
-        <v>0.114301799</v>
+        <v>0.144444293</v>
       </c>
       <c r="AD119" t="n">
-        <v>5743.391969</v>
+        <v>7956.054529</v>
       </c>
       <c r="AE119" t="n">
-        <v>2867.252775</v>
+        <v>3623.941894</v>
       </c>
       <c r="AF119" t="n">
-        <v>2818.858044</v>
+        <v>2881.795929</v>
       </c>
       <c r="AG119" t="n">
-        <v>82.66495429</v>
+        <v>56.15947678</v>
       </c>
       <c r="AH119" t="n">
-        <v>134.7644326</v>
+        <v>89.99094547</v>
       </c>
       <c r="AI119" t="n">
-        <v>90.0075364</v>
+        <v>0.023165132</v>
       </c>
       <c r="AJ119" t="n">
-        <v>0.016656431</v>
+        <v>153.5380006</v>
       </c>
       <c r="AK119" t="n">
-        <v>78.4363872</v>
+        <v>71.31794638</v>
       </c>
       <c r="AL119" t="n">
-        <v>0.00069495</v>
+        <v>0.002014771</v>
       </c>
       <c r="AM119" t="n">
-        <v>0.017814943</v>
+        <v>0.017974609</v>
       </c>
       <c r="AN119" t="n">
-        <v>16.23466088</v>
+        <v>24.60671979</v>
       </c>
       <c r="AO119" t="n">
-        <v>8.083894843</v>
+        <v>16.155126</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.109000084</v>
+        <v>0.113515764</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.239455467</v>
+        <v>0.469895595</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B120" t="s">
-        <v>59</v>
+        <v>311</v>
       </c>
       <c r="C120" t="s">
         <v>45</v>
       </c>
       <c r="D120" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E120" t="s">
         <v>105</v>
       </c>
       <c r="F120" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G120" t="s">
         <v>49</v>
       </c>
       <c r="H120" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="I120" t="n">
-        <v>2888.960212</v>
+        <v>2368.187939</v>
       </c>
       <c r="J120" t="n">
-        <v>1.197872628</v>
+        <v>1.235464393</v>
       </c>
       <c r="K120" t="n">
-        <v>4.578268462</v>
+        <v>5.35671961</v>
       </c>
       <c r="L120" t="n">
-        <v>4601.822882</v>
+        <v>10580.77969</v>
       </c>
       <c r="M120" t="n">
-        <v>2502.313335</v>
+        <v>4682.257952</v>
       </c>
       <c r="N120" t="n">
-        <v>7104.136217</v>
+        <v>15263.03764</v>
       </c>
       <c r="O120" t="n">
-        <v>892.4517732</v>
+        <v>1749.071381</v>
       </c>
       <c r="P120" t="n">
-        <v>1.619984954</v>
+        <v>0.359694764</v>
       </c>
       <c r="Q120" t="n">
-        <v>1681.322728</v>
+        <v>3069.881295</v>
       </c>
       <c r="R120" t="n">
-        <v>1474.983855</v>
+        <v>3244.242123</v>
       </c>
       <c r="S120" t="n">
-        <v>19.33272137</v>
+        <v>14.19005999</v>
       </c>
       <c r="T120" t="n">
-        <v>0.837421408</v>
+        <v>0.282656791</v>
       </c>
       <c r="U120" t="n">
-        <v>3.009555949</v>
+        <v>97.74194202</v>
       </c>
       <c r="V120" t="n">
-        <v>0.275560973</v>
+        <v>0.646202399</v>
       </c>
       <c r="W120" t="n">
-        <v>3.504040929</v>
+        <v>16.00817572</v>
       </c>
       <c r="X120" t="n">
-        <v>0.102609794</v>
+        <v>0.213660522</v>
       </c>
       <c r="Y120" t="n">
-        <v>1.783916497</v>
+        <v>3.283561914</v>
       </c>
       <c r="Z120" t="n">
-        <v>0.102609794</v>
+        <v>0.213660522</v>
       </c>
       <c r="AA120" t="n">
-        <v>0.862577346</v>
+        <v>1.710092369</v>
       </c>
       <c r="AB120" t="n">
-        <v>1.699059758</v>
+        <v>3.097992922</v>
       </c>
       <c r="AC120" t="n">
-        <v>0.084856739</v>
+        <v>0.185568992</v>
       </c>
       <c r="AD120" t="n">
-        <v>5382.965152</v>
+        <v>8775.122108</v>
       </c>
       <c r="AE120" t="n">
-        <v>2116.909331</v>
+        <v>3981.324644</v>
       </c>
       <c r="AF120" t="n">
-        <v>3103.177912</v>
+        <v>2977.165868</v>
       </c>
       <c r="AG120" t="n">
-        <v>83.74214078</v>
+        <v>28.26567905</v>
       </c>
       <c r="AH120" t="n">
-        <v>179.9963959</v>
+        <v>179.9955871</v>
       </c>
       <c r="AI120" t="n">
-        <v>135.7686906</v>
+        <v>89.98586921</v>
       </c>
       <c r="AJ120" t="n">
-        <v>162.016816</v>
+        <v>133.2385816</v>
       </c>
       <c r="AK120" t="n">
-        <v>82.58805729</v>
+        <v>62.08531995</v>
       </c>
       <c r="AL120" t="n">
-        <v>0.001569971</v>
+        <v>0.003563478</v>
       </c>
       <c r="AM120" t="n">
-        <v>0.018307395</v>
+        <v>0.017883781</v>
       </c>
       <c r="AN120" t="n">
-        <v>5.356319887</v>
+        <v>27.32741207</v>
       </c>
       <c r="AO120" t="n">
-        <v>7.985398552</v>
+        <v>13.86448886</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.319199647</v>
+        <v>0.160121451</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.595144332</v>
+        <v>0.363102426</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B121" t="s">
-        <v>59</v>
+        <v>311</v>
       </c>
       <c r="C121" t="s">
         <v>51</v>
       </c>
       <c r="D121" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E121" t="s">
         <v>105</v>
       </c>
       <c r="F121" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G121" t="s">
         <v>49</v>
       </c>
       <c r="H121" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I121" t="n">
-        <v>1195.227204</v>
+        <v>2411.364629</v>
       </c>
       <c r="J121" t="n">
-        <v>1.760935618</v>
+        <v>0.569377243</v>
       </c>
       <c r="K121" t="n">
-        <v>7.496364347</v>
+        <v>3.693621578</v>
       </c>
       <c r="L121" t="n">
-        <v>15145.90988</v>
+        <v>7905.36203</v>
       </c>
       <c r="M121" t="n">
-        <v>5789.080033</v>
+        <v>10230.0448</v>
       </c>
       <c r="N121" t="n">
-        <v>20934.98992</v>
+        <v>18135.40683</v>
       </c>
       <c r="O121" t="n">
-        <v>2035.072437</v>
+        <v>1882.11179</v>
       </c>
       <c r="P121" t="n">
-        <v>0.123578854</v>
+        <v>0.807871805</v>
       </c>
       <c r="Q121" t="n">
-        <v>3456.15358</v>
+        <v>3366.102605</v>
       </c>
       <c r="R121" t="n">
-        <v>3325.581406</v>
+        <v>3245.178766</v>
       </c>
       <c r="S121" t="n">
-        <v>19.68693955</v>
+        <v>16.47244922</v>
       </c>
       <c r="T121" t="n">
-        <v>0.685056491</v>
+        <v>0.876294881</v>
       </c>
       <c r="U121" t="n">
-        <v>85.99091071</v>
+        <v>162.7434372</v>
       </c>
       <c r="V121" t="n">
-        <v>0.667532028</v>
+        <v>0.618268702</v>
       </c>
       <c r="W121" t="n">
-        <v>15.23228248</v>
+        <v>14.75736505</v>
       </c>
       <c r="X121" t="n">
-        <v>0.320293802</v>
+        <v>0.1546128</v>
       </c>
       <c r="Y121" t="n">
-        <v>3.77646622</v>
+        <v>3.520713194</v>
       </c>
       <c r="Z121" t="n">
-        <v>0.320293802</v>
+        <v>0.1546128</v>
       </c>
       <c r="AA121" t="n">
-        <v>1.863015318</v>
+        <v>2.016126624</v>
       </c>
       <c r="AB121" t="n">
-        <v>3.5942655</v>
+        <v>3.336773922</v>
       </c>
       <c r="AC121" t="n">
-        <v>0.18220072</v>
+        <v>0.183939272</v>
       </c>
       <c r="AD121" t="n">
-        <v>8559.053933</v>
+        <v>9862.989624</v>
       </c>
       <c r="AE121" t="n">
-        <v>4339.831313</v>
+        <v>3834.455325</v>
       </c>
       <c r="AF121" t="n">
-        <v>2785.967217</v>
+        <v>2831.138835</v>
       </c>
       <c r="AG121" t="n">
-        <v>68.50564906</v>
+        <v>87.62948806</v>
       </c>
       <c r="AH121" t="n">
-        <v>135.7987158</v>
+        <v>133.2247792</v>
       </c>
       <c r="AI121" t="n">
-        <v>90.01795526</v>
+        <v>46.77122007</v>
       </c>
       <c r="AJ121" t="n">
-        <v>179.9880583</v>
+        <v>0.026031168</v>
       </c>
       <c r="AK121" t="n">
-        <v>71.09110548</v>
+        <v>84.36684373</v>
       </c>
       <c r="AL121" t="n">
-        <v>0.001280876</v>
+        <v>0.000200043</v>
       </c>
       <c r="AM121" t="n">
-        <v>0.017859941</v>
+        <v>0.017773142</v>
       </c>
       <c r="AN121" t="n">
-        <v>24.78708044</v>
+        <v>23.75928324</v>
       </c>
       <c r="AO121" t="n">
-        <v>20.66889725</v>
+        <v>13.86448886</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.313423793</v>
+        <v>0.193084625</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.518402696</v>
+        <v>0.365454564</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B122" t="s">
         <v>44</v>
@@ -17345,19 +17351,19 @@
         <v>45</v>
       </c>
       <c r="D122" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E122" t="s">
         <v>132</v>
       </c>
       <c r="F122" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G122" t="s">
         <v>49</v>
       </c>
       <c r="H122" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I122" t="n">
         <v>3305.194541</v>
@@ -17467,7 +17473,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B123" t="s">
         <v>44</v>
@@ -17476,19 +17482,19 @@
         <v>51</v>
       </c>
       <c r="D123" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E123" t="s">
         <v>132</v>
       </c>
       <c r="F123" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G123" t="s">
         <v>49</v>
       </c>
       <c r="H123" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I123" t="n">
         <v>2009.861139</v>
@@ -17598,7 +17604,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B124" t="s">
         <v>54</v>
@@ -17607,19 +17613,19 @@
         <v>45</v>
       </c>
       <c r="D124" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E124" t="s">
         <v>132</v>
       </c>
       <c r="F124" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G124" t="s">
         <v>49</v>
       </c>
       <c r="H124" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I124" t="n">
         <v>2361.872132</v>
@@ -17729,7 +17735,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B125" t="s">
         <v>54</v>
@@ -17738,19 +17744,19 @@
         <v>51</v>
       </c>
       <c r="D125" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E125" t="s">
         <v>132</v>
       </c>
       <c r="F125" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G125" t="s">
         <v>49</v>
       </c>
       <c r="H125" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I125" t="n">
         <v>2494.717036</v>
@@ -17860,7 +17866,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B126" t="s">
         <v>59</v>
@@ -17869,19 +17875,19 @@
         <v>45</v>
       </c>
       <c r="D126" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E126" t="s">
         <v>132</v>
       </c>
       <c r="F126" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G126" t="s">
         <v>49</v>
       </c>
       <c r="H126" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I126" t="n">
         <v>587.0566007</v>
@@ -17991,7 +17997,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B127" t="s">
         <v>59</v>
@@ -18000,19 +18006,19 @@
         <v>51</v>
       </c>
       <c r="D127" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E127" t="s">
         <v>132</v>
       </c>
       <c r="F127" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G127" t="s">
         <v>49</v>
       </c>
       <c r="H127" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I127" t="n">
         <v>959.4853452</v>
@@ -18122,7 +18128,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B128" t="s">
         <v>44</v>
@@ -18131,129 +18137,129 @@
         <v>45</v>
       </c>
       <c r="D128" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E128" t="s">
         <v>105</v>
       </c>
       <c r="F128" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G128" t="s">
         <v>49</v>
       </c>
       <c r="H128" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I128" t="n">
-        <v>2252.048593</v>
+        <v>1886.641235</v>
       </c>
       <c r="J128" t="n">
-        <v>1.851490763</v>
+        <v>0.410690104</v>
       </c>
       <c r="K128" t="n">
-        <v>9.899576969</v>
+        <v>3.927968246</v>
       </c>
       <c r="L128" t="n">
-        <v>13116.70913</v>
+        <v>7243.563989</v>
       </c>
       <c r="M128" t="n">
-        <v>5727.331732</v>
+        <v>5545.471638</v>
       </c>
       <c r="N128" t="n">
-        <v>18844.04087</v>
+        <v>12789.03563</v>
       </c>
       <c r="O128" t="n">
-        <v>1508.202835</v>
+        <v>1438.517884</v>
       </c>
       <c r="P128" t="n">
-        <v>0.307082559</v>
+        <v>0.47351829</v>
       </c>
       <c r="Q128" t="n">
-        <v>2135.200042</v>
+        <v>2194.289085</v>
       </c>
       <c r="R128" t="n">
-        <v>3402.832111</v>
+        <v>3499.780934</v>
       </c>
       <c r="S128" t="n">
-        <v>17.79722306</v>
+        <v>22.55928782</v>
       </c>
       <c r="T128" t="n">
-        <v>0.579760442</v>
+        <v>0.636373076</v>
       </c>
       <c r="U128" t="n">
-        <v>4.002892467</v>
+        <v>94.00245975</v>
       </c>
       <c r="V128" t="n">
-        <v>0.348544141</v>
+        <v>0.396208699</v>
       </c>
       <c r="W128" t="n">
-        <v>5.150089023</v>
+        <v>6.664995242</v>
       </c>
       <c r="X128" t="n">
-        <v>0.270167433</v>
+        <v>0.147730971</v>
       </c>
       <c r="Y128" t="n">
-        <v>2.405361119</v>
+        <v>2.34204061</v>
       </c>
       <c r="Z128" t="n">
-        <v>0.270167433</v>
+        <v>0.147730971</v>
       </c>
       <c r="AA128" t="n">
-        <v>1.463929877</v>
+        <v>1.633804846</v>
       </c>
       <c r="AB128" t="n">
-        <v>2.221236486</v>
+        <v>2.151221092</v>
       </c>
       <c r="AC128" t="n">
-        <v>0.184124633</v>
+        <v>0.190819518</v>
       </c>
       <c r="AD128" t="n">
-        <v>8369.210951</v>
+        <v>5473.684913</v>
       </c>
       <c r="AE128" t="n">
-        <v>2192.442496</v>
+        <v>2067.580537</v>
       </c>
       <c r="AF128" t="n">
-        <v>2692.834663</v>
+        <v>3266.712597</v>
       </c>
       <c r="AG128" t="n">
-        <v>57.97604424</v>
+        <v>63.63730764</v>
       </c>
       <c r="AH128" t="n">
-        <v>179.9835604</v>
+        <v>90.01017873</v>
       </c>
       <c r="AI128" t="n">
-        <v>45.48221673</v>
+        <v>26.49349999</v>
       </c>
       <c r="AJ128" t="n">
-        <v>153.0339364</v>
+        <v>0.002151244</v>
       </c>
       <c r="AK128" t="n">
-        <v>77.4875895</v>
+        <v>78.55778118</v>
       </c>
       <c r="AL128" t="n">
-        <v>0.002180412</v>
+        <v>0.000690686</v>
       </c>
       <c r="AM128" t="n">
-        <v>0.018206072</v>
+        <v>0.017965441</v>
       </c>
       <c r="AN128" t="n">
-        <v>6.812883598</v>
+        <v>11.10280252</v>
       </c>
       <c r="AO128" t="n">
-        <v>37.94914547</v>
+        <v>5.294796752</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.57059609</v>
+        <v>0.378105715</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.868438106</v>
+        <v>0.569761112</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B129" t="s">
         <v>44</v>
@@ -18262,129 +18268,129 @@
         <v>51</v>
       </c>
       <c r="D129" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E129" t="s">
         <v>105</v>
       </c>
       <c r="F129" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G129" t="s">
         <v>49</v>
       </c>
       <c r="H129" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I129" t="n">
-        <v>1427.84098</v>
+        <v>1304.286416</v>
       </c>
       <c r="J129" t="n">
-        <v>0.811165731</v>
+        <v>0.752111261</v>
       </c>
       <c r="K129" t="n">
-        <v>4.204041155</v>
+        <v>3.875839373</v>
       </c>
       <c r="L129" t="n">
-        <v>6943.740573</v>
+        <v>5498.685475</v>
       </c>
       <c r="M129" t="n">
-        <v>3531.519244</v>
+        <v>3444.239929</v>
       </c>
       <c r="N129" t="n">
-        <v>10475.25982</v>
+        <v>8942.925404</v>
       </c>
       <c r="O129" t="n">
-        <v>1102.759952</v>
+        <v>1017.822167</v>
       </c>
       <c r="P129" t="n">
-        <v>0.146551211</v>
+        <v>0.405048441</v>
       </c>
       <c r="Q129" t="n">
-        <v>1908.053499</v>
+        <v>1748.041934</v>
       </c>
       <c r="R129" t="n">
-        <v>2185.023362</v>
+        <v>1924.394111</v>
       </c>
       <c r="S129" t="n">
-        <v>14.73996265</v>
+        <v>13.40300475</v>
       </c>
       <c r="T129" t="n">
-        <v>0.859077262</v>
+        <v>0.92169107</v>
       </c>
       <c r="U129" t="n">
-        <v>146.994794</v>
+        <v>144.2529751</v>
       </c>
       <c r="V129" t="n">
-        <v>0.447853679</v>
+        <v>0.423553515</v>
       </c>
       <c r="W129" t="n">
-        <v>8.367028485</v>
+        <v>7.776879876</v>
       </c>
       <c r="X129" t="n">
-        <v>0.103160734</v>
+        <v>0.091643887</v>
       </c>
       <c r="Y129" t="n">
-        <v>2.011207113</v>
+        <v>1.839725663</v>
       </c>
       <c r="Z129" t="n">
-        <v>0.103160734</v>
+        <v>0.091643887</v>
       </c>
       <c r="AA129" t="n">
-        <v>1.140120682</v>
+        <v>1.077925273</v>
       </c>
       <c r="AB129" t="n">
-        <v>1.892238886</v>
+        <v>1.738043329</v>
       </c>
       <c r="AC129" t="n">
-        <v>0.118968227</v>
+        <v>0.101682334</v>
       </c>
       <c r="AD129" t="n">
-        <v>5605.182131</v>
+        <v>5428.590836</v>
       </c>
       <c r="AE129" t="n">
-        <v>2463.271383</v>
+        <v>2222.508111</v>
       </c>
       <c r="AF129" t="n">
-        <v>3085.021697</v>
+        <v>3133.251902</v>
       </c>
       <c r="AG129" t="n">
-        <v>85.90772615</v>
+        <v>92.16910703</v>
       </c>
       <c r="AH129" t="n">
-        <v>45.46507347</v>
+        <v>89.99871374</v>
       </c>
       <c r="AI129" t="n">
-        <v>0.007915162</v>
+        <v>0.002502325</v>
       </c>
       <c r="AJ129" t="n">
-        <v>89.99544448</v>
+        <v>135.0113781</v>
       </c>
       <c r="AK129" t="n">
-        <v>87.6317687</v>
+        <v>88.10006596</v>
       </c>
       <c r="AL129" t="n">
-        <v>0.002144446</v>
+        <v>0.002264006</v>
       </c>
       <c r="AM129" t="n">
-        <v>0.017423127</v>
+        <v>0.017502711</v>
       </c>
       <c r="AN129" t="n">
-        <v>15.06305952</v>
+        <v>13.97982251</v>
       </c>
       <c r="AO129" t="n">
-        <v>5.696614355</v>
+        <v>5.294796752</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.162011643</v>
+        <v>0.141262058</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.325893888</v>
+        <v>0.302637582</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B130" t="s">
         <v>54</v>
@@ -18393,129 +18399,125 @@
         <v>45</v>
       </c>
       <c r="D130" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E130" t="s">
         <v>105</v>
       </c>
       <c r="F130" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G130" t="s">
         <v>49</v>
       </c>
       <c r="H130" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I130" t="n">
-        <v>2853.123957</v>
+        <v>2521.720129</v>
       </c>
       <c r="J130" t="n">
-        <v>1.505676869</v>
+        <v>1.372827409</v>
       </c>
       <c r="K130" t="n">
-        <v>8.064353577</v>
+        <v>9.023566155</v>
       </c>
       <c r="L130" t="n">
-        <v>17286.47625</v>
+        <v>15506.49974</v>
       </c>
       <c r="M130" t="n">
-        <v>7014.89823</v>
+        <v>8095.646656</v>
       </c>
       <c r="N130" t="n">
-        <v>24301.37448</v>
+        <v>23602.1464</v>
       </c>
       <c r="O130" t="n">
-        <v>1967.954553</v>
+        <v>1717.109913</v>
       </c>
       <c r="P130" t="n">
-        <v>0.146656761</v>
+        <v>0.098537187</v>
       </c>
       <c r="Q130" t="n">
-        <v>2739.770134</v>
+        <v>2579.691159</v>
       </c>
       <c r="R130" t="n">
-        <v>4420.860336</v>
+        <v>4292.995923</v>
       </c>
       <c r="S130" t="n">
-        <v>17.92157372</v>
-      </c>
-      <c r="T130" t="n">
-        <v>0.347456805</v>
-      </c>
+        <v>18.8368781</v>
+      </c>
+      <c r="T130"/>
       <c r="U130" t="n">
-        <v>103.5065918</v>
+        <v>3.263792641</v>
       </c>
       <c r="V130" t="n">
-        <v>0.415303674</v>
+        <v>0.505213519</v>
       </c>
       <c r="W130" t="n">
-        <v>6.547147036</v>
+        <v>8.860354974</v>
       </c>
       <c r="X130" t="n">
-        <v>0.342492749</v>
+        <v>0.25681762</v>
       </c>
       <c r="Y130" t="n">
-        <v>3.082291163</v>
+        <v>2.83653305</v>
       </c>
       <c r="Z130" t="n">
-        <v>0.342492749</v>
+        <v>0.25681762</v>
       </c>
       <c r="AA130" t="n">
-        <v>1.961476823</v>
+        <v>1.701020513</v>
       </c>
       <c r="AB130" t="n">
-        <v>2.827405393</v>
+        <v>2.581198464</v>
       </c>
       <c r="AC130" t="n">
-        <v>0.25488577</v>
+        <v>0.255334586</v>
       </c>
       <c r="AD130" t="n">
-        <v>9603.505653</v>
+        <v>9216.763204</v>
       </c>
       <c r="AE130" t="n">
-        <v>2381.417805</v>
+        <v>2417.282137</v>
       </c>
       <c r="AF130" t="n">
-        <v>2796.195533</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>34.74568049</v>
-      </c>
+        <v>3296.951032</v>
+      </c>
+      <c r="AG130"/>
       <c r="AH130" t="n">
-        <v>0.004435962</v>
+        <v>0.003993252</v>
       </c>
       <c r="AI130" t="n">
-        <v>90.00266938</v>
+        <v>45.2880265</v>
       </c>
       <c r="AJ130" t="n">
-        <v>45.99109924</v>
+        <v>90.01196698</v>
       </c>
       <c r="AK130" t="n">
-        <v>60.93779034</v>
+        <v>75.68362019</v>
       </c>
       <c r="AL130" t="n">
-        <v>0.00190995</v>
+        <v>0.003329137</v>
       </c>
       <c r="AM130" t="n">
-        <v>0.018468167</v>
+        <v>0.01853167</v>
       </c>
       <c r="AN130" t="n">
-        <v>8.462158679</v>
+        <v>13.42481128</v>
       </c>
       <c r="AO130" t="n">
-        <v>37.55024689</v>
+        <v>20.18365348</v>
       </c>
       <c r="AP130" t="n">
-        <v>0.34360428</v>
+        <v>0.311758293</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.047376468</v>
+        <v>0.626127173</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B131" t="s">
         <v>54</v>
@@ -18524,129 +18526,129 @@
         <v>51</v>
       </c>
       <c r="D131" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E131" t="s">
         <v>105</v>
       </c>
       <c r="F131" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G131" t="s">
         <v>49</v>
       </c>
       <c r="H131" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I131" t="n">
-        <v>1519.77783</v>
+        <v>1446.698756</v>
       </c>
       <c r="J131" t="n">
-        <v>0.993460618</v>
+        <v>0.938582141</v>
       </c>
       <c r="K131" t="n">
-        <v>4.367764905</v>
+        <v>4.249888064</v>
       </c>
       <c r="L131" t="n">
-        <v>6687.274287</v>
+        <v>6387.141488</v>
       </c>
       <c r="M131" t="n">
-        <v>3839.31713</v>
+        <v>3175.817133</v>
       </c>
       <c r="N131" t="n">
-        <v>10526.59142</v>
+        <v>9562.958621</v>
       </c>
       <c r="O131" t="n">
-        <v>1164.871291</v>
+        <v>1116.494885</v>
       </c>
       <c r="P131" t="n">
-        <v>0.389924183</v>
+        <v>0.39571708</v>
       </c>
       <c r="Q131" t="n">
-        <v>2054.027202</v>
+        <v>1925.82345</v>
       </c>
       <c r="R131" t="n">
-        <v>2062.387452</v>
+        <v>2007.361578</v>
       </c>
       <c r="S131" t="n">
-        <v>17.67644715</v>
+        <v>17.1044606</v>
       </c>
       <c r="T131" t="n">
-        <v>0.846481433</v>
+        <v>0.850731359</v>
       </c>
       <c r="U131" t="n">
-        <v>85.76444242</v>
+        <v>97.00407858</v>
       </c>
       <c r="V131" t="n">
-        <v>0.437463471</v>
+        <v>0.425150708</v>
       </c>
       <c r="W131" t="n">
-        <v>8.130869575</v>
+        <v>7.79979306</v>
       </c>
       <c r="X131" t="n">
-        <v>0.120255775</v>
+        <v>0.112692568</v>
       </c>
       <c r="Y131" t="n">
-        <v>2.174321541</v>
+        <v>2.038539621</v>
       </c>
       <c r="Z131" t="n">
-        <v>0.120255775</v>
+        <v>0.112692568</v>
       </c>
       <c r="AA131" t="n">
-        <v>1.207188839</v>
+        <v>1.174420369</v>
       </c>
       <c r="AB131" t="n">
-        <v>2.066374977</v>
+        <v>1.934460852</v>
       </c>
       <c r="AC131" t="n">
-        <v>0.107946564</v>
+        <v>0.10407877</v>
       </c>
       <c r="AD131" t="n">
-        <v>5738.816351</v>
+        <v>5126.475158</v>
       </c>
       <c r="AE131" t="n">
-        <v>2482.477703</v>
+        <v>2324.479527</v>
       </c>
       <c r="AF131" t="n">
-        <v>3102.857901</v>
+        <v>3136.384492</v>
       </c>
       <c r="AG131" t="n">
-        <v>84.64814325</v>
+        <v>85.07313591</v>
       </c>
       <c r="AH131" t="n">
-        <v>179.9974793</v>
+        <v>89.98910177</v>
       </c>
       <c r="AI131" t="n">
-        <v>89.98733871</v>
+        <v>179.9964309</v>
       </c>
       <c r="AJ131" t="n">
-        <v>134.0249798</v>
+        <v>26.74945817</v>
       </c>
       <c r="AK131" t="n">
-        <v>87.58597599</v>
+        <v>86.50105662</v>
       </c>
       <c r="AL131" t="n">
-        <v>0.000979019</v>
+        <v>0.000506605</v>
       </c>
       <c r="AM131" t="n">
-        <v>0.017570341</v>
+        <v>0.017587215</v>
       </c>
       <c r="AN131" t="n">
-        <v>14.81224499</v>
+        <v>14.1807801</v>
       </c>
       <c r="AO131" t="n">
-        <v>5.649513056</v>
+        <v>5.700235695</v>
       </c>
       <c r="AP131" t="n">
-        <v>0.139824684</v>
+        <v>0.09860235</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.342963125</v>
+        <v>0.289282506</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
@@ -18655,125 +18657,129 @@
         <v>45</v>
       </c>
       <c r="D132" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E132" t="s">
         <v>105</v>
       </c>
       <c r="F132" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G132" t="s">
         <v>49</v>
       </c>
       <c r="H132" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I132" t="n">
-        <v>3476.02463</v>
+        <v>1737.504283</v>
       </c>
       <c r="J132" t="n">
-        <v>0.519362035</v>
+        <v>1.063511973</v>
       </c>
       <c r="K132" t="n">
-        <v>5.442035421</v>
+        <v>4.973116557</v>
       </c>
       <c r="L132" t="n">
-        <v>17583.51255</v>
+        <v>8520.561945</v>
       </c>
       <c r="M132" t="n">
-        <v>10590.58849</v>
+        <v>3673.685936</v>
       </c>
       <c r="N132" t="n">
-        <v>28174.10104</v>
+        <v>12194.24788</v>
       </c>
       <c r="O132" t="n">
-        <v>2605.182423</v>
+        <v>1323.307689</v>
       </c>
       <c r="P132" t="n">
-        <v>0.170837687</v>
+        <v>0.268786989</v>
       </c>
       <c r="Q132" t="n">
-        <v>3773.511299</v>
+        <v>2299.10118</v>
       </c>
       <c r="R132" t="n">
-        <v>7073.582277</v>
+        <v>2402.768076</v>
       </c>
       <c r="S132" t="n">
-        <v>20.35996717</v>
-      </c>
-      <c r="T132"/>
+        <v>15.8666242</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0.756685669</v>
+      </c>
       <c r="U132" t="n">
-        <v>3.019695167</v>
+        <v>158.750608</v>
       </c>
       <c r="V132" t="n">
-        <v>0.499252865</v>
+        <v>0.452108746</v>
       </c>
       <c r="W132" t="n">
-        <v>8.292655016</v>
+        <v>8.95162458</v>
       </c>
       <c r="X132" t="n">
-        <v>0.26921588</v>
+        <v>0.13542635</v>
       </c>
       <c r="Y132" t="n">
-        <v>4.042692424</v>
+        <v>2.434523525</v>
       </c>
       <c r="Z132" t="n">
-        <v>0.26921588</v>
+        <v>0.13542635</v>
       </c>
       <c r="AA132" t="n">
-        <v>2.778986042</v>
+        <v>1.389872518</v>
       </c>
       <c r="AB132" t="n">
-        <v>3.647440039</v>
+        <v>2.307005589</v>
       </c>
       <c r="AC132" t="n">
-        <v>0.395252386</v>
+        <v>0.127517936</v>
       </c>
       <c r="AD132" t="n">
-        <v>12862.68515</v>
+        <v>5427.658616</v>
       </c>
       <c r="AE132" t="n">
-        <v>2514.190627</v>
+        <v>2500.384737</v>
       </c>
       <c r="AF132" t="n">
-        <v>2926.567544</v>
-      </c>
-      <c r="AG132"/>
+        <v>3095.072298</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>75.66856691</v>
+      </c>
       <c r="AH132" t="n">
-        <v>0.0172036</v>
+        <v>179.9980846</v>
       </c>
       <c r="AI132" t="n">
-        <v>45.50952952</v>
+        <v>153.5106189</v>
       </c>
       <c r="AJ132" t="n">
-        <v>89.98279169</v>
+        <v>134.9929831</v>
       </c>
       <c r="AK132" t="n">
-        <v>26.15065882</v>
+        <v>89.12487716</v>
       </c>
       <c r="AL132" t="n">
-        <v>0.003839545</v>
+        <v>0.000457453</v>
       </c>
       <c r="AM132" t="n">
-        <v>0.01926245</v>
+        <v>0.017818709</v>
       </c>
       <c r="AN132" t="n">
-        <v>9.934132692</v>
+        <v>13.95583629</v>
       </c>
       <c r="AO132" t="n">
-        <v>28.02181407</v>
+        <v>6.437281376</v>
       </c>
       <c r="AP132" t="n">
-        <v>0.434394811</v>
+        <v>0.157933214</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.123048382</v>
+        <v>0.379698929</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B133" t="s">
         <v>59</v>
@@ -18782,129 +18788,129 @@
         <v>51</v>
       </c>
       <c r="D133" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E133" t="s">
         <v>105</v>
       </c>
       <c r="F133" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G133" t="s">
         <v>49</v>
       </c>
       <c r="H133" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="I133" t="n">
-        <v>1457.458799</v>
+        <v>1471.789588</v>
       </c>
       <c r="J133" t="n">
-        <v>1.03265772</v>
+        <v>0.992495951</v>
       </c>
       <c r="K133" t="n">
-        <v>4.569093118</v>
+        <v>4.454989793</v>
       </c>
       <c r="L133" t="n">
-        <v>6480.289501</v>
+        <v>6959.205138</v>
       </c>
       <c r="M133" t="n">
-        <v>2871.734651</v>
+        <v>3040.59146</v>
       </c>
       <c r="N133" t="n">
-        <v>9352.024152</v>
+        <v>9999.796598</v>
       </c>
       <c r="O133" t="n">
-        <v>1119.905071</v>
+        <v>1137.266227</v>
       </c>
       <c r="P133" t="n">
-        <v>0.527605806</v>
+        <v>0.32724602</v>
       </c>
       <c r="Q133" t="n">
-        <v>1933.382321</v>
+        <v>1986.553517</v>
       </c>
       <c r="R133" t="n">
-        <v>1949.407889</v>
+        <v>1953.67706</v>
       </c>
       <c r="S133" t="n">
-        <v>15.73656534</v>
+        <v>17.18824675</v>
       </c>
       <c r="T133" t="n">
-        <v>0.815249359</v>
+        <v>0.834757991</v>
       </c>
       <c r="U133" t="n">
-        <v>93.50033287</v>
+        <v>93.4917038</v>
       </c>
       <c r="V133" t="n">
-        <v>0.440942095</v>
+        <v>0.438977898</v>
       </c>
       <c r="W133" t="n">
-        <v>8.361945711</v>
+        <v>8.307697372</v>
       </c>
       <c r="X133" t="n">
-        <v>0.115553074</v>
+        <v>0.110924443</v>
       </c>
       <c r="Y133" t="n">
-        <v>2.048961964</v>
+        <v>2.097455701</v>
       </c>
       <c r="Z133" t="n">
-        <v>0.115553074</v>
+        <v>0.110924443</v>
       </c>
       <c r="AA133" t="n">
-        <v>1.180340211</v>
+        <v>1.224106924</v>
       </c>
       <c r="AB133" t="n">
-        <v>1.94746644</v>
+        <v>1.997648195</v>
       </c>
       <c r="AC133" t="n">
-        <v>0.101495524</v>
+        <v>0.099807506</v>
       </c>
       <c r="AD133" t="n">
-        <v>5206.404885</v>
+        <v>5436.17584</v>
       </c>
       <c r="AE133" t="n">
-        <v>2473.31059</v>
+        <v>2136.680196</v>
       </c>
       <c r="AF133" t="n">
-        <v>3096.378558</v>
+        <v>3186.483692</v>
       </c>
       <c r="AG133" t="n">
-        <v>81.52493593</v>
+        <v>83.47579909</v>
       </c>
       <c r="AH133" t="n">
-        <v>45.50140224</v>
+        <v>179.999921</v>
       </c>
       <c r="AI133" t="n">
-        <v>179.9958963</v>
+        <v>90.01558848</v>
       </c>
       <c r="AJ133" t="n">
-        <v>134.506659</v>
+        <v>45.01442189</v>
       </c>
       <c r="AK133" t="n">
-        <v>84.31294244</v>
+        <v>96.7463791</v>
       </c>
       <c r="AL133" t="n">
-        <v>0.000432577</v>
+        <v>0.002461991</v>
       </c>
       <c r="AM133" t="n">
-        <v>0.017762443</v>
+        <v>0.017675838</v>
       </c>
       <c r="AN133" t="n">
-        <v>14.67950644</v>
+        <v>14.78937097</v>
       </c>
       <c r="AO133" t="n">
-        <v>5.756333158</v>
+        <v>6.437281376</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.112778588</v>
+        <v>0.164042607</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.298396008</v>
+        <v>0.309412062</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B134" t="s">
         <v>44</v>
@@ -18913,19 +18919,19 @@
         <v>45</v>
       </c>
       <c r="D134" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E134" t="s">
         <v>47</v>
       </c>
       <c r="F134" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G134" t="s">
         <v>49</v>
       </c>
       <c r="H134" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I134" t="n">
         <v>1152.227072</v>
@@ -19035,7 +19041,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B135" t="s">
         <v>44</v>
@@ -19044,19 +19050,19 @@
         <v>51</v>
       </c>
       <c r="D135" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E135" t="s">
         <v>47</v>
       </c>
       <c r="F135" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G135" t="s">
         <v>49</v>
       </c>
       <c r="H135" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I135" t="n">
         <v>1942.534599</v>
@@ -19166,7 +19172,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B136" t="s">
         <v>54</v>
@@ -19175,19 +19181,19 @@
         <v>45</v>
       </c>
       <c r="D136" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E136" t="s">
         <v>47</v>
       </c>
       <c r="F136" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G136" t="s">
         <v>49</v>
       </c>
       <c r="H136" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I136" t="n">
         <v>785.738821</v>
@@ -19297,7 +19303,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B137" t="s">
         <v>54</v>
@@ -19306,19 +19312,19 @@
         <v>51</v>
       </c>
       <c r="D137" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E137" t="s">
         <v>47</v>
       </c>
       <c r="F137" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G137" t="s">
         <v>49</v>
       </c>
       <c r="H137" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I137" t="n">
         <v>942.033414</v>
@@ -19428,7 +19434,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B138" t="s">
         <v>59</v>
@@ -19437,19 +19443,19 @@
         <v>45</v>
       </c>
       <c r="D138" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E138" t="s">
         <v>47</v>
       </c>
       <c r="F138" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G138" t="s">
         <v>49</v>
       </c>
       <c r="H138" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I138" t="n">
         <v>1378.264741</v>
@@ -19559,7 +19565,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B139" t="s">
         <v>59</v>
@@ -19568,19 +19574,19 @@
         <v>51</v>
       </c>
       <c r="D139" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E139" t="s">
         <v>47</v>
       </c>
       <c r="F139" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G139" t="s">
         <v>49</v>
       </c>
       <c r="H139" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I139" t="n">
         <v>2241.474898</v>
@@ -19690,7 +19696,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B140" t="s">
         <v>44</v>
@@ -19699,19 +19705,19 @@
         <v>45</v>
       </c>
       <c r="D140" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E140" t="s">
         <v>65</v>
       </c>
       <c r="F140" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G140" t="s">
         <v>49</v>
       </c>
       <c r="H140" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="I140" t="n">
         <v>1801.854871</v>
@@ -19821,7 +19827,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B141" t="s">
         <v>44</v>
@@ -19830,19 +19836,19 @@
         <v>51</v>
       </c>
       <c r="D141" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E141" t="s">
         <v>65</v>
       </c>
       <c r="F141" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G141" t="s">
         <v>49</v>
       </c>
       <c r="H141" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="I141" t="n">
         <v>1713.79698</v>
@@ -19952,7 +19958,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B142" t="s">
         <v>54</v>
@@ -19961,19 +19967,19 @@
         <v>45</v>
       </c>
       <c r="D142" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E142" t="s">
         <v>65</v>
       </c>
       <c r="F142" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G142" t="s">
         <v>49</v>
       </c>
       <c r="H142" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I142" t="n">
         <v>2043.561559</v>
@@ -20083,7 +20089,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B143" t="s">
         <v>54</v>
@@ -20092,19 +20098,19 @@
         <v>51</v>
       </c>
       <c r="D143" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E143" t="s">
         <v>65</v>
       </c>
       <c r="F143" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G143" t="s">
         <v>49</v>
       </c>
       <c r="H143" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="I143" t="n">
         <v>1732.822764</v>
@@ -20214,7 +20220,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B144" t="s">
         <v>59</v>
@@ -20223,19 +20229,19 @@
         <v>45</v>
       </c>
       <c r="D144" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E144" t="s">
         <v>65</v>
       </c>
       <c r="F144" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G144" t="s">
         <v>49</v>
       </c>
       <c r="H144" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="I144" t="n">
         <v>1304.542289</v>
@@ -20345,7 +20351,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B145" t="s">
         <v>59</v>
@@ -20354,19 +20360,19 @@
         <v>51</v>
       </c>
       <c r="D145" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E145" t="s">
         <v>65</v>
       </c>
       <c r="F145" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G145" t="s">
         <v>49</v>
       </c>
       <c r="H145" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="I145" t="n">
         <v>1266.001277</v>
@@ -20490,66 +20496,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" t="s">
         <v>371</v>
-      </c>
-      <c r="B5" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B8" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9">
@@ -20557,7 +20563,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10">
@@ -20565,7 +20571,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11">
@@ -20573,7 +20579,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12">
@@ -20581,7 +20587,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13">
@@ -20589,7 +20595,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14">
@@ -20597,7 +20603,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15">
@@ -20605,55 +20611,55 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B16" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>384</v>
+      </c>
+      <c r="B18" t="s">
         <v>380</v>
-      </c>
-      <c r="B18" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B20" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B21" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22">
@@ -20661,7 +20667,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23">
@@ -20669,79 +20675,79 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B24" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B25" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B26" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B27" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>394</v>
+      </c>
+      <c r="B28" t="s">
         <v>390</v>
-      </c>
-      <c r="B28" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B29" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B30" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B31" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B32" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33">
@@ -20749,87 +20755,87 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B34" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B35" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B36" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B37" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B38" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B39" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B40" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B42" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B43" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
